--- a/Bot/Data_shopee/Data_1_1_2.xlsx
+++ b/Bot/Data_shopee/Data_1_1_2.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,1524 +382,1644 @@
         <v>Fd4QmV src</v>
       </c>
       <c r="C1" t="str">
+        <v>hxLzax</v>
+      </c>
+      <c r="D1" t="str">
         <v>FTxtVW</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>customized-overlay-image src</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>DgXDzJ</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
+        <v>I0W76E</v>
+      </c>
+      <c r="H1" t="str">
         <v>bPcAVl</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>k9JZlv</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>bx++ig 2</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>k9JZlv 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>OwmBnn</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>JVW3E2</v>
-      </c>
-      <c r="L1" t="str">
-        <v>hxLzax</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E0%B9%84%E0%B8%94%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-Annies-2023-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87%E0%B8%95%E0%B8%B2%E0%B9%81%E0%B8%A1%E0%B8%A7-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B9%E0%B8%A7%E0%B8%B5-3D-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-glitter-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E3%80%90Luun%E3%80%91-i.295447014.9720363391?sp_atk=a9210147-393f-4d22-8a4f-b32c89666a75&amp;xptdk=a9210147-393f-4d22-8a4f-b32c89666a75</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-5-%E0%B8%A1%E0%B8%A5.-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-1-2-%E0%B8%A7%E0%B8%B4%E0%B8%99%E0%B8%B2%E0%B8%97%E0%B8%B5-i.509212921.13581177480?sp_atk=8921476d-0f73-4c67-86c0-addca22f04b7&amp;xptdk=8921476d-0f73-4c67-86c0-addca22f04b7</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/5fcdd421d81100f402ec54004cf1ace2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8b22367d786fc45055feec27f1c7da0d_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>-43%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D2" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-83%</v>
       </c>
       <c r="E2" t="str">
-        <v>สีเจลแฟลชไดมอนด์กลิตเตอร์ Annies 2023 น้ำมันทาเล็บเปลือกใหม่ ยาทาเล็บเจลสีใส เจลยาทาเล็บสะท้อนแสงตาแมว สีเจล สีทาเล็บเจล เจลยูวี 3D ไข่มุก glitter ติดทนนาน เม็ดสีแน่น น้ำมันเล็บต่อเล็บแฟลช【Luun】</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F2" t="str">
-        <v>-</v>
+        <v>กาวติดขนตาปลอม แห้งเร็ว ขนาด 5 มล. สําหรับต่อขนตา 1-2 วินาที</v>
       </c>
       <c r="G2" t="str">
-        <v>28</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H2" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I2" t="str">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J2" t="str">
-        <v>ขายแล้ว 33.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K2" t="str">
+        <v>23</v>
+      </c>
+      <c r="L2" t="str">
+        <v>ขายแล้ว 52.9พัน ชิ้น</v>
+      </c>
+      <c r="M2" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L2" t="str">
-        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/Dior-Addict-Lip-Maximizer-2ml-%E0%B8%94%E0%B8%B4%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2.-i.70998059.21512170912?sp_atk=b5c64110-1cfb-47d5-9e3a-d52094708409&amp;xptdk=b5c64110-1cfb-47d5-9e3a-d52094708409</v>
+        <v>https://shopee.co.th/%F0%9F%8E%80%F0%9F%8E%80%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%8E%80%F0%9F%8E%80-Mascara-Waterproof-SHEDOES-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%B0-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99-i.271462076.10097638634?sp_atk=08eab60a-81da-43e0-ae7b-0899f6f193af&amp;xptdk=08eab60a-81da-43e0-ae7b-0899f6f193af</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnc-ll7zhn8s286z14_tn</v>
+        <v>https://down-th.img.susercontent.com/file/494ecdcf7fb5d65917d38d96c713e64f_tn</v>
       </c>
       <c r="C3" t="str">
-        <v>-68%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>-63%</v>
       </c>
       <c r="E3" t="str">
-        <v>Dior Addict Lip Maximizer 2ml ดิออร์ ลิปกลอสสุดแวววาว เบาสบาย.</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>-</v>
+        <v>🎀🎀มาใหม่พร้อมส่ง🎀🎀 Mascara Waterproof SHEDOES มาสคาร่าสีดำกันน้ำกันเหงื่อติดทน ไม่เลอะ ไม่เปื้อน</v>
       </c>
       <c r="G3" t="str">
-        <v>174</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>฿</v>
+        <v>฿39</v>
       </c>
       <c r="I3" t="str">
-        <v>349</v>
+        <v>22</v>
       </c>
       <c r="J3" t="str">
-        <v>ขายแล้ว 12.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>ขายแล้ว 62.6พัน ชิ้น</v>
+      </c>
+      <c r="M3" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L3" t="str">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%841-%E0%B9%81%E0%B8%A5%E0%B8%B0-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%89%E0%B8%B2-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%9E%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B8%B5%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%99-i.267190587.10487214152?sp_atk=15719677-8f3e-4509-9e95-23abf377e25c&amp;xptdk=15719677-8f3e-4509-9e95-23abf377e25c</v>
+        <v>https://shopee.co.th/LANBENA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9A%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81-%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-i.86465195.2428889528?sp_atk=79569bfc-efb2-451f-971b-126914f6dc63&amp;xptdk=79569bfc-efb2-451f-971b-126914f6dc63</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/eabd2e6f2089470538a9e7f7fa130422_tn</v>
+        <v>https://down-th.img.susercontent.com/file/429ae1bc33940b0cc159fb05f73279e0_tn</v>
       </c>
       <c r="C4" t="str">
-        <v>-50%</v>
+        <v/>
       </c>
       <c r="D4" t="str">
+        <v>-87%</v>
+      </c>
+      <c r="E4" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
-      <c r="E4" t="str">
-        <v>กิ๊บยกโคนผม กิ๊บม้วนผม แพ็ค1 และ 2 ชิ้น โรลยกโคนผม ม้วนผมหน้าม้า โรลเพิ่มวอลลุ่ม ช่วยยกโคนให้ผมดูหนา พองสวย ผมไม่ลีบแบน</v>
-      </c>
       <c r="F4" t="str">
-        <v>-</v>
+        <v>LANBENA ลิปบาล์ม ลิปมาส์ก สารสกัดจากธรรมชาติ บำรุงปากชุ่มชื่น</v>
       </c>
       <c r="G4" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>฿</v>
+        <v>฿312</v>
       </c>
       <c r="I4" t="str">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J4" t="str">
-        <v>ขายแล้ว 42.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 8.6พัน ชิ้น</v>
+      </c>
+      <c r="M4" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%84%E0%B8%9D%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A2%E0%B8%B2%E0%B8%A2-%E0%B8%82%E0%B8%B5%E0%B9%89%E0%B9%81%E0%B8%A1%E0%B8%A5%E0%B8%87%E0%B8%A7%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%AB%E0%B8%B9%E0%B8%94-%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%B2-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0-%E0%B8%AA%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%B4%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B9%84%E0%B8%9D%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A2%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%9D-%E0%B8%AB%E0%B8%B9%E0%B8%94-%E0%B8%88%E0%B8%B5%E0%B9%89%E0%B9%84%E0%B8%9D-%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B9%84%E0%B8%9D-i.791978572.17974373238?sp_atk=845accd9-f42f-479e-937b-5e442723cbbe&amp;xptdk=845accd9-f42f-479e-937b-5e442723cbbe</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-3D-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2-i.171353391.3008041210?sp_atk=53b6044e-de66-42fa-864a-b3745f917e5f&amp;xptdk=53b6044e-de66-42fa-864a-b3745f917e5f</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-llbtaowraksed6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ley3zl66k46h7f_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>-72%</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>-90%</v>
       </c>
       <c r="E5" t="str">
-        <v>[ของแท้] ครีมไฝคุณยาย ขี้แมลงวัน ติ่งเนื้อ หูด ตาปลา แก้ปัญหา กระ สิวหิน  ครีมแต้มไฝคุณยาย ไฝ หูด จี้ไฝ แต้มไฝ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F5" t="str">
-        <v>-</v>
+        <v>เล็บปลอม 3D สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กา</v>
       </c>
       <c r="G5" t="str">
-        <v>54</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I5" t="str">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="J5" t="str">
-        <v>ขายแล้ว 44.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K5" t="str">
-        <v>จังหวัดอำนาจเจริญ</v>
+        <v>16</v>
       </c>
       <c r="L5" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 203.9พัน ชิ้น</v>
+      </c>
+      <c r="M5" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5Two-moons-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9410ml*1-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-TM2-i.127727510.15448999739?sp_atk=5cbc731e-7167-474e-aaf4-30c9e916f28f&amp;xptdk=5cbc731e-7167-474e-aaf4-30c9e916f28f</v>
+        <v>https://shopee.co.th/%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD1%E0%B9%81%E0%B8%96%E0%B8%A11%E0%B8%9F%E0%B8%A3%E0%B8%B5!!!-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B8%AD%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%A2%E0%B8%84%E0%B9%88%E0%B8%B0%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-COOC-COCOSILIYA-EAU-DE-PARFUM-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%EF%BC%88-50MLX50-i.530657498.14571784074?sp_atk=28705230-c1f1-4ddd-9eb0-ccfb1e638215&amp;xptdk=28705230-c1f1-4ddd-9eb0-ccfb1e638215</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/db2674179eaf91efe20f931ecb4563cf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/84466357f7e162a308345eaed61a3e86_tn</v>
       </c>
       <c r="C6" t="str">
-        <v>-57%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>🔥พร้อมส่ง🔥Two-moons ของแท้ ยาทาเล็บ สีทาเล็บ กลิตเตอร์ กึ่งเจล ขนาด10ml*1 ไม่ต้องอบ สีสวย แห้งไว รุ่นใหม่ TM2</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>-</v>
+        <v>ซื้อ1แถม1ฟรี!!! สินค้าพร้อมจัดส่ง เพิ่มลงรายการที่ชอบได้เลยค่ะน้ำหอม COOC COCOSILIYA EAU DE PARFUM น้ำหอมแฟชั่น（ 50MLX50</v>
       </c>
       <c r="G6" t="str">
-        <v>19</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="J6" t="str">
-        <v>ขายแล้ว 36พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>ขายแล้ว 39.5พัน ชิ้น</v>
+      </c>
+      <c r="M6" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L6" t="str">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/3-%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-i.76226901.15763408867?sp_atk=01f8943d-b792-4635-be37-8513575fd4e1&amp;xptdk=01f8943d-b792-4635-be37-8513575fd4e1</v>
+        <v>https://shopee.co.th/Pinkflash-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A7%E0%B8%B1%E0%B8%99-i.320847166.4662106850?sp_atk=f8db7f90-f2ed-4136-b0b8-63d17ef79691&amp;xptdk=f8db7f90-f2ed-4136-b0b8-63d17ef79691</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/6aa26d8ce655dac70e694a4bbc8ae344_tn</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>-87%</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>-89%</v>
       </c>
       <c r="E7" t="str">
-        <v>3 สี กลิตเตอร์ อายแชโดว์ ดินสอ / ใบหน้า อายแชโดว์ ชิมเมอร์ ไฮไลท์ แต่งหน้า สี / สว่าง กันน้ํา ไหม หนอน แต่งหน้า ตา เครื่องสําอาง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F7" t="str">
-        <v>฿115</v>
+        <v>Pinkflash รองพื้น เนื้อแมตต์ บางเบา ติดทนทานตลอดวัน</v>
       </c>
       <c r="G7" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>฿300</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>32</v>
       </c>
       <c r="J7" t="str">
-        <v>ขายแล้ว 22.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>ขายแล้ว 57.5พัน ชิ้น</v>
+      </c>
+      <c r="M7" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L7" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A7%E0%B8%B5%E2%80%8B-Aveda-25cm-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%94%E0%B8%B9%E0%B9%81%E0%B8%A5%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-i.431683584.11335924088?sp_atk=011d864a-46c0-43b2-884a-f8998578f991&amp;xptdk=011d864a-46c0-43b2-884a-f8998578f991</v>
+        <v>https://shopee.co.th/%F0%9F%92%A6%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%F0%9F%92%A6%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-2%E0%B8%8B%E0%B8%AD%E0%B8%87-i.514272033.11931288473?sp_atk=973fd84c-016b-4f63-8222-0bde54662df9&amp;xptdk=973fd84c-016b-4f63-8222-0bde54662df9</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/692b6a01b693a17c55148e43792d7910_tn</v>
+        <v/>
       </c>
       <c r="C8" t="str">
-        <v>-67%</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-59%</v>
       </c>
       <c r="E8" t="str">
-        <v>หวี​ Aveda 25cm หวีแปรง หวีผม หวีไม้ หวีนวดศรีษะ นวดดูแลรากผมเส้นผมหนังศรีษะ หวีไดร์ ด้ามไม้ มีกล่อง</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>-</v>
+        <v>💦สินค้าขายดี💦สีผม โคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีย้อมผม ขายถูกสุด‼️ ขั้นต่ำ 2ซอง</v>
       </c>
       <c r="G8" t="str">
-        <v>49</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="J8" t="str">
-        <v>ขายแล้ว 35พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K8" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>60</v>
       </c>
       <c r="L8" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 19.1พัน ชิ้น</v>
+      </c>
+      <c r="M8" t="str">
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/ANUA-Heartleaf-77-Soothing-Toner-%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B8%A7-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%82%E0%B8%A5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%AA%E0%B8%9A.-i.70998059.6946452197?sp_atk=b6c5470f-9d49-4533-8975-135c5c4f1802&amp;xptdk=b6c5470f-9d49-4533-8975-135c5c4f1802</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%F0%9F%8C%9F%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1%E0%B9%83%E0%B8%99%E0%B8%9B%E0%B8%B5-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.446794000.15120056341?sp_atk=e2fd0d45-b827-4204-9b17-45ee88f1f6f0&amp;xptdk=e2fd0d45-b827-4204-9b17-45ee88f1f6f0</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn8-locuq3rs7lnk5e_tn</v>
+        <v/>
       </c>
       <c r="C9" t="str">
-        <v>-99%</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>-78%</v>
       </c>
       <c r="E9" t="str">
-        <v>ANUA Heartleaf 77% Soothing Toner อานัว โทนเนอร์พี่จุน ปลอบประโลมผิวและลดการอักเสบ.</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v>฿200</v>
+        <v>ส่งเร็ว🌟สีทาเล็บ  สีทาเล็บ  สีทาเล็บเจล ยาทาเล็บลอกได้ กลิ่นหอมไม่ต้องอบ สียอดนิยมในปี  ไม่ต้องอบ ปกป้องเล็บ ยาทาเล็บ</v>
       </c>
       <c r="G9" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="J9" t="str">
-        <v>ขายแล้ว 44.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K9" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>17</v>
       </c>
       <c r="L9" t="str">
-        <v/>
+        <v>ขายแล้ว 45พัน ชิ้น</v>
+      </c>
+      <c r="M9" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%96%E0%B8%AD%E0%B8%94%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.13941876990?sp_atk=53122c0e-ec76-49f3-a2f0-1e0a349c1984&amp;xptdk=53122c0e-ec76-49f3-a2f0-1e0a349c1984</v>
+        <v>https://shopee.co.th/%E2%9A%A1%EF%B8%8F12.12%E2%9A%A1%EF%B8%8F%F0%9F%90%9A%F0%9F%A7%BC%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B8%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B8%9A-FreshMe%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-i.501255383.14910745528?sp_atk=2933867b-2c4d-44c5-aaf3-6d3f2c35fd7f&amp;xptdk=2933867b-2c4d-44c5-aaf3-6d3f2c35fd7f</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lq26f02kvghhaf_tn</v>
+        <v/>
       </c>
       <c r="C10" t="str">
-        <v>-90%</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>เล็บปลอม พร้อมกาว กันน้ํา แบบถอดออกได้ จํานวน 24 ชิ้น</v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v>฿100</v>
+        <v>⚡️12.12⚡️🐚🧼ไม่ระบุสินค้า ของแทบ#FreshMeน้ำยาล้าง หอมละมุน</v>
       </c>
       <c r="G10" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>59</v>
       </c>
       <c r="J10" t="str">
-        <v>ขายแล้ว 96.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K10" t="str">
-        <v>ต่างประเทศ</v>
+        <v>199</v>
       </c>
       <c r="L10" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 26.4พัน ชิ้น</v>
+      </c>
+      <c r="M10" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-liplover-%E2%9D%97%E2%9D%97%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9D%97%E2%9D%97-i.29272211.8504953889?sp_atk=d1378e56-34f0-4fb7-9f6a-bca7a7000a72&amp;xptdk=d1378e56-34f0-4fb7-9f6a-bca7a7000a72</v>
+        <v>https://shopee.co.th/ODBO-SIGNATURE-EYESHADOW-PALETTE-OD276%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-6-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.97338386.21306930595?sp_atk=4c6c4d15-f5b0-487f-a141-d671f2acb15e&amp;xptdk=4c6c4d15-f5b0-487f-a141-d671f2acb15e</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lljcon4d5dxa17_tn</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v>-98%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>ลิปเลิฟเวอร์ liplover  ❗❗ล็อตล่าสุด พร้อมส่งครบสี❗❗</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>-</v>
+        <v>ODBO SIGNATURE EYESHADOW PALETTE OD276โอดีบีโอ อายแชโดว์ ซิกเนเจอร์ พาเลท 6 สี เม็ดสีแแน่น ติดทนนาน</v>
       </c>
       <c r="G11" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I11" t="str">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J11" t="str">
-        <v>ขายแล้ว 147.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K11" t="str">
-        <v>จังหวัดนครศรีธรรมราช</v>
+        <v>115</v>
       </c>
       <c r="L11" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 20.9พัน ชิ้น</v>
+      </c>
+      <c r="M11" t="str">
+        <v>จังหวัดสุรินทร์</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/BEIKOTT-5D-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-3-%E0%B8%84%E0%B8%B9%E0%B9%88-Eyelashes-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B9%87%E0%B8%AD%E0%B8%81--i.606860656.17039388140?sp_atk=455dc52a-139b-4b98-a91b-cfe2447b433c&amp;xptdk=455dc52a-139b-4b98-a91b-cfe2447b433c</v>
+        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-(%E0%B9%84%E0%B8%9F%E0%B8%99%E0%B8%AD%E0%B8%A5-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81)-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%AB%E0%B8%A1%E0%B8%AD-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%9A%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%B4-i.83719543.15050896711?sp_atk=20241f7c-fcf0-449f-8ecc-9d1053e696c7&amp;xptdk=20241f7c-fcf0-449f-8ecc-9d1053e696c7</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7qul0-lk92gup3fs6z62_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lhh4egxd1nz7ad_tn</v>
       </c>
       <c r="C12" t="str">
-        <v>-86%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-42%</v>
       </c>
       <c r="E12" t="str">
-        <v>BEIKOTT 5D ขนตาปลอม ขนตาปลอมธรรมชาติ ขนตา ขนมิงค์ แบบธรรมชาติ 3 คู่ Eyelashes [ผู้ขายชาวไทย พร้อมสต็อก]</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F12" t="str">
-        <v>-</v>
+        <v>BANOBAGI Final Sleeping Mask (ไฟนอล สลีปปิ้ง มาส์ก) #สลีปปิ้งมาสก์คุณหมอ #สลีปปิ้งมาร์คบาโนบากิ</v>
       </c>
       <c r="G12" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>฿</v>
+        <v>฿88</v>
       </c>
       <c r="I12" t="str">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J12" t="str">
-        <v>ขายแล้ว 98.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 280พัน ชิ้น</v>
+      </c>
+      <c r="M12" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8Bath-bomb-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9F%E0%B8%AD%E0%B8%87-3X-%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2-%E2%9C%A8Bigest-Thailand-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AA%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%87-i.448358305.20717305249?sp_atk=1d5534a6-27fa-4bf4-938c-96e2f04f840c&amp;xptdk=1d5534a6-27fa-4bf4-938c-96e2f04f840c</v>
+        <v>https://shopee.co.th/OYAFUN-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.479652726.12164223229?sp_atk=c2fda1ad-f0a5-40e5-a2b6-61ea4e886f36&amp;xptdk=c2fda1ad-f0a5-40e5-a2b6-61ea4e886f36</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lmuudk7ayqvi7d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1847b5f4cd44b076d287a607b009019d_tn</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-69%</v>
       </c>
       <c r="E13" t="str">
-        <v>✨Bath bomb สีสวย ฟอง 3X เท่า ✨Bigest Thailand  ไม่แสบตา สีไม่ติดอ่าง</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>-</v>
+        <v>OYAFUN สีทาเล็บ ยาทาเล็บ สีทาเล็บลอกได้ กลิ่นหอม สีทาเล็บเจลไม่ต้องอบ  แห้งเร็ว ปกป้องเล็บ</v>
       </c>
       <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v>-</v>
+      </c>
+      <c r="I13" t="str">
+        <v>15</v>
+      </c>
+      <c r="J13" t="str">
+        <v>฿</v>
+      </c>
+      <c r="K13" t="str">
         <v>16</v>
       </c>
-      <c r="H13" t="str">
-        <v>฿</v>
-      </c>
-      <c r="I13" t="str">
-        <v>80</v>
-      </c>
-      <c r="J13" t="str">
-        <v>ขายแล้ว 70.6พัน ชิ้น</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
+        <v>ขายแล้ว 163.4พัน ชิ้น</v>
+      </c>
+      <c r="M13" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L13" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.104595979.5212283116?sp_atk=dce01172-f3d5-4e31-b150-cc19a4573d07&amp;xptdk=dce01172-f3d5-4e31-b150-cc19a4573d07</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%F0%9F%98%8A-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-i.255138429.18648610935?sp_atk=3780a192-4828-4d17-9b79-2535d2057b61&amp;xptdk=3780a192-4828-4d17-9b79-2535d2057b61</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/cd1d37a8ed8e22d5f04f2d77008eec85_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5dc1d329f17be42a1bc90df2afbca0b6_tn</v>
       </c>
       <c r="C14" t="str">
-        <v>-64%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>-68%</v>
       </c>
       <c r="E14" t="str">
-        <v>สติกเกอร์กากเพชรพิมพ์ลายดาว 3 มิติอุปกรณ์สําหรับตกแต่งเล็บ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F14" t="str">
-        <v>-</v>
+        <v>ที่ล้างแปรงแต่งหน้า 😊 แผ่นซิลิโคน อ่างซิลิโคนล้างแปรง น้ำยาล้างแปรง</v>
       </c>
       <c r="G14" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I14" t="str">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J14" t="str">
-        <v>ขายแล้ว 10.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K14" t="str">
-        <v>ต่างประเทศ</v>
+        <v>108</v>
       </c>
       <c r="L14" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 22.8พัน ชิ้น</v>
+      </c>
+      <c r="M14" t="str">
+        <v>จังหวัดปทุมธานี</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/Monochrome-Net-Red-Rouge-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.3049984196?sp_atk=6b989f99-c6c1-4b71-8836-267516ceb185&amp;xptdk=6b989f99-c6c1-4b71-8836-267516ceb185</v>
+        <v>https://shopee.co.th/Abpopa-DAIMANPU%C2%AE-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.93231183.21544411741?sp_atk=48c387d1-c44a-4053-92e3-2abf5ab98b6e&amp;xptdk=48c387d1-c44a-4053-92e3-2abf5ab98b6e</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/db97b3f516abe7d529e7da5cf584531a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loay7nqcvrnr4a_tn</v>
       </c>
       <c r="C15" t="str">
-        <v>-91%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-67%</v>
       </c>
       <c r="E15" t="str">
-        <v>Monochrome Net Red Rouge Blush บลัชออน เนื้อแมตต์ สำหรับแต่งหน้า</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F15" t="str">
-        <v>-</v>
+        <v>Abpopa DAIMANPU® ลิปสติก เนื้อแมตต์ เจลลี่ เคลือบเงา ติดทนนาน</v>
       </c>
       <c r="G15" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I15" t="str">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J15" t="str">
-        <v>ขายแล้ว 79.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K15" t="str">
+        <v>29</v>
+      </c>
+      <c r="L15" t="str">
+        <v>ขายแล้ว 21.5พัน ชิ้น</v>
+      </c>
+      <c r="M15" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L15" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/NAGARAKU-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-16-%E0%B9%81%E0%B8%96%E0%B8%A7-i.80231784.2909708341?sp_atk=2e96600f-6e43-447b-907a-4159e1764b3f&amp;xptdk=2e96600f-6e43-447b-907a-4159e1764b3f</v>
+        <v>https://shopee.co.th/Banana-Boat-Aqua-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%82%E0%B8%9A%E0%B9%89%E0%B8%97.-i.70998059.9245467680?sp_atk=1a7717d5-68d4-413b-a166-cca4ae59f612&amp;xptdk=1a7717d5-68d4-413b-a166-cca4ae59f612</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/8e4f2fac5bcc0a78a014d5b3bea62656_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
       </c>
       <c r="C16" t="str">
-        <v>-12%</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>-90%</v>
       </c>
       <c r="E16" t="str">
-        <v>NAGARAKU ขนตาปลอม ขนมิงค์เทียม นิ่ม 16 แถว</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>฿78</v>
+        <v>Banana Boat Aqua กันแดดบานาน่า โบ้ท.</v>
       </c>
       <c r="G16" t="str">
-        <v>69</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>฿435</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>42</v>
       </c>
       <c r="J16" t="str">
-        <v>ขายแล้ว 92.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K16" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L16" t="str">
-        <v/>
+        <v>ขายแล้ว 74.8พัน ชิ้น</v>
+      </c>
+      <c r="M16" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/(6%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)Clear-nose-Acne-Care-Solution-Serum-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%99%E0%B9%88-%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-i.314059043.6257698711?sp_atk=94209ea9-75b6-404e-9ca0-cd8a4be01482&amp;xptdk=94209ea9-75b6-404e-9ca0-cd8a4be01482</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.514003823.21869765786?sp_atk=8badce6f-45ec-401f-88e1-fc180f59aa7d&amp;xptdk=8badce6f-45ec-401f-88e1-fc180f59aa7d</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/b9ba89248a8f6a57ca15f29d41f11fe1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-gbtnjtf8ajlv6b_tn</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="E17" t="str">
-        <v>(6ซอง/กล่อง)Clear nose Acne Care Solution Serum เครียร์โนส แอคเน่ แคร์ โซลูชั่น เซรั่ม</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="G17" t="str">
-        <v>181</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J17" t="str">
-        <v>ขายแล้ว 46.1พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K17" t="str">
-        <v>จังหวัดมุกดาหาร</v>
+        <v>12</v>
       </c>
       <c r="L17" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 84.4พัน ชิ้น</v>
+      </c>
+      <c r="M17" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/Rou-Bao-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%82%E0%B8%9A%E0%B8%A7%E0%B9%8C-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1-%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-i.854997188.21047722564?sp_atk=da199e6f-2fb4-4076-b15c-9a88b0e24b27&amp;xptdk=da199e6f-2fb4-4076-b15c-9a88b0e24b27</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-CB-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.431683584.9776438013?sp_atk=0dadef2b-50cd-4062-86b8-7e295266bf43&amp;xptdk=0dadef2b-50cd-4062-86b8-7e295266bf43</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lnsa2fksla4oc9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f2e0a118819e642dec188df1df7019db_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>-50%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D18" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-38%</v>
       </c>
       <c r="E18" t="str">
-        <v>Rou Bao ขายดี อุปกรณ์ตกแต่งเล็บ ไข่มุก โบว์ ทรงกลม หลากสี สําหรับตกแต่งเล็บ DIY</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F18" t="str">
-        <v>฿44</v>
+        <v>เครื่องม้วนผม CB ที่ม้วนผม ที่ลอนผม แกนม้วนผม เครื่องหนีบผม เครื่องลอนผม แบบเปียกและแบบแห้ง ที่หนีบผม</v>
       </c>
       <c r="G18" t="str">
-        <v>22</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>80</v>
       </c>
       <c r="J18" t="str">
-        <v>ขายแล้ว 18.1พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K18" t="str">
-        <v>ต่างประเทศ</v>
+        <v>95</v>
       </c>
       <c r="L18" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 52.6พัน ชิ้น</v>
+      </c>
+      <c r="M18" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/S-14%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%EF%B8%8FCappuvini-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B4%E0%B8%84%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.250814349.14092316989?sp_atk=d37041e8-e1c0-4db1-a909-b89fa3fc5189&amp;xptdk=d37041e8-e1c0-4db1-a909-b89fa3fc5189</v>
+        <v>https://shopee.co.th/S-09%F0%9F%8C%9FXixi-Eye-Shadow-Pen-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%97%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%95%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%94%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%89-i.250814349.13419007708?sp_atk=016ceb87-b00b-4b39-b6b5-519da4887aa1&amp;xptdk=016ceb87-b00b-4b39-b6b5-519da4887aa1</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/df61e43671cd954554c89a8a73253642_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b60e2b4e91e3929be089346ec4bd17cc_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>-59%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>-51%</v>
       </c>
       <c r="E19" t="str">
-        <v>S-14สินค้ามีพร้อมส่ง⚡️Cappuvini อายแชโดว์กลิสเตอร์ เนื้อลิควิด อายแชโดว์ไฮไลท์ ประกายมุก เเวววาวกันน้ำ กันเหงื่อติดทนนาน</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>฿69</v>
+        <v>S-09🌟Xixi Eye Shadow Pen อายแชโดว์+อินไลเนอร์แบบแท่ง ไฮไลท์ อายแชโดว์ทาหัวตา สีวาว เขียนใต้ตาเป็นดอลลี่อาย ติดทน กันนำ้</v>
       </c>
       <c r="G19" t="str">
-        <v>28</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>29</v>
       </c>
       <c r="J19" t="str">
-        <v>ขายแล้ว 16.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K19" t="str">
+        <v>32</v>
+      </c>
+      <c r="L19" t="str">
+        <v>ขายแล้ว 31.7พัน ชิ้น</v>
+      </c>
+      <c r="M19" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L19" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/Maange-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%96%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-9-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.242872583.5078863006?sp_atk=7bda78e5-59da-4f34-a783-518fe8243a38&amp;xptdk=7bda78e5-59da-4f34-a783-518fe8243a38</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B9%81%E0%B8%A5%E0%B8%B0-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B7%E0%B9%8A%E0%B8%81%E0%B8%AA%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9C%E0%B8%A5%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-3-2.4-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.18062071.176305290?sp_atk=81f97a93-d950-4d1d-9045-2d7a8964cf76&amp;xptdk=81f97a93-d950-4d1d-9045-2d7a8964cf76</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/2b7e7ec488ce3d178a3963a9c4d2fac7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkxpyb5rlywc22_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>-66%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D20" t="str">
+        <v>-50%</v>
+      </c>
+      <c r="E20" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
-      <c r="E20" t="str">
-        <v>Maange ชุดแปรงแต่งหน้า ด้ามจับขนแปรงนุ่ม พร้อมถังแปรง 9 ชิ้น</v>
-      </c>
       <c r="F20" t="str">
-        <v>-</v>
+        <v>สีผึ้งแม่เลียบ แบบตลับ และ ลิปสตื๊กสผึ้งแม่เลียบ ลิปมัน ที่ช่วยผลัดเซลผิวปากที่คล้ำให้เปลี่ยนเป็นสีชมพู ขนาด 3,2.4 กรัม</v>
       </c>
       <c r="G20" t="str">
-        <v>82</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H20" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I20" t="str">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="J20" t="str">
-        <v>ขายแล้ว 43.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K20" t="str">
-        <v>ต่างประเทศ</v>
+        <v>59</v>
       </c>
       <c r="L20" t="str">
-        <v/>
+        <v>ขายแล้ว 58พัน ชิ้น</v>
+      </c>
+      <c r="M20" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1-3-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-KOTA-COSMETICS-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.59913582.23214646367?sp_atk=efa102f7-94da-4393-a744-380ec7f80753&amp;xptdk=efa102f7-94da-4393-a744-380ec7f80753</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5Two-moons-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9410ml*1-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-TM2-i.127727510.15448999739?sp_atk=7d957b80-030b-4553-8682-09bf5cebfd9c&amp;xptdk=7d957b80-030b-4553-8682-09bf5cebfd9c</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-ljo0tcz94409ae_tn</v>
+        <v>https://down-th.img.susercontent.com/file/db2674179eaf91efe20f931ecb4563cf_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>-5%</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>-57%</v>
       </c>
       <c r="E21" t="str">
-        <v>ยาย้อม 3 สีใหม่ สีผม KOTA COSMETICS สีย้อมผมออร์แกนิคแท้ 💯%นวัตกรรมใหม่ผลิตจากรากโสมธรรมชาติ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F21" t="str">
-        <v>-</v>
+        <v>🔥พร้อมส่ง🔥Two-moons ของแท้ ยาทาเล็บ สีทาเล็บ กลิตเตอร์ กึ่งเจล ขนาด10ml*1 ไม่ต้องอบ สีสวย แห้งไว รุ่นใหม่ TM2</v>
       </c>
       <c r="G21" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I21" t="str">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J21" t="str">
-        <v>ขายแล้ว 13.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K21" t="str">
+        <v>88</v>
+      </c>
+      <c r="L21" t="str">
+        <v>ขายแล้ว 36.1พัน ชิ้น</v>
+      </c>
+      <c r="M21" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L21" t="str">
-        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87-DIY-8-%E0%B8%A1%E0%B8%A5.-i.523478166.16409828747?sp_atk=9cada73c-c76f-4b6b-95a2-3fcd0f195e98&amp;xptdk=9cada73c-c76f-4b6b-95a2-3fcd0f195e98</v>
+        <v>https://shopee.co.th/Maange-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%96%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-9-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.242872583.5078863006?sp_atk=5ee2adc2-50b9-4553-9023-fd80d3346b13&amp;xptdk=5ee2adc2-50b9-4553-9023-fd80d3346b13</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/ee675c5de17f09079ccc5327e5af31c5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/2b7e7ec488ce3d178a3963a9c4d2fac7_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>-78%</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-66%</v>
       </c>
       <c r="E22" t="str">
-        <v>กาวติดเล็บเจล ชิมเมอร์ กลิตเตอร์ สะท้อนแสง DIY 8 มล.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F22" t="str">
-        <v>-</v>
+        <v>Maange ชุดแปรงแต่งหน้า ด้ามจับขนแปรงนุ่ม พร้อมถังแปรง 9 ชิ้น</v>
       </c>
       <c r="G22" t="str">
-        <v>13</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H22" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I22" t="str">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="J22" t="str">
-        <v>ขายแล้ว 54.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K22" t="str">
+        <v>99</v>
+      </c>
+      <c r="L22" t="str">
+        <v>ขายแล้ว 44.1พัน ชิ้น</v>
+      </c>
+      <c r="M22" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L22" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B8%AD%E0%B8%AD%E0%B9%82%E0%B8%95%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B9%87%E0%B8%AD%E0%B8%81--i.606860656.17100035386?sp_atk=2d600106-3442-474c-afa1-357eb1bccb55&amp;xptdk=2d600106-3442-474c-afa1-357eb1bccb55</v>
+        <v>https://shopee.co.th/DKL901(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%81-Eye-shadow-9-colors-dikalu-i.25539018.9738907303?sp_atk=577df460-a114-4d94-9139-34c4a279c4ab&amp;xptdk=577df460-a114-4d94-9139-34c4a279c4ab</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7quky-lk92m6g4u0sb19_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0d1cf655be716c7509c00871f594663f_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>-97%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง แบบหมุนออโต้ กันน้ำ พร้อมแปรง ติดทนนาน 1 ชิ้น [ผู้ขายชาวไทย พร้อมสต็อก]</v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v>-</v>
+        <v>DKL901(ใหม่/แท้) พาเลทอายแชโดว์ 9 สี แมท เนื้อใยไหม ประกายชิมเมอร์ สีสวยมาก Eye shadow 9 colors dikalu</v>
       </c>
       <c r="G23" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="I23" t="str">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J23" t="str">
-        <v>ขายแล้ว 171.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K23" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L23" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 51.5พัน ชิ้น</v>
+      </c>
+      <c r="M23" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-10D-8-16-mm-i.931678.9942558794?sp_atk=a396b135-6235-48cc-9be4-b270a90e8f25&amp;xptdk=a396b135-6235-48cc-9be4-b270a90e8f25</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B8%AA%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-18%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3-Innisfree-My-Real-Squeeze-Mask-20ml-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA-i.219286622.9257869455?sp_atk=4f829f4f-78af-471b-af8f-d2b4377ac8fa&amp;xptdk=4f829f4f-78af-471b-af8f-d2b4377ac8fa</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-liffemgpwivl64_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ee48e73a3a4b98ba9dff014fc15c3dcc_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>-76%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>ขนตาปลอม 10D 8-16 mm</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v>-</v>
+        <v>อินนิสฟรี มาส์กหน้า 18สูตร Innisfree My Real Squeeze Mask 20ml แผ่นมาส์กหน้า มาร์คหน้า มาร์กหน้า แผ่นมาร์ส</v>
       </c>
       <c r="G24" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="H24" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J24" t="str">
-        <v>ขายแล้ว 88.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 409.8พัน ชิ้น</v>
+      </c>
+      <c r="M24" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/M265-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%9C%E0%B8%B8%E0%B8%94%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87-SPF-35-PA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9440ML-i.274041486.22318921481?sp_atk=dbeccbfe-3cbd-4075-b84d-acd6698812b9&amp;xptdk=dbeccbfe-3cbd-4075-b84d-acd6698812b9</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99-CS-Series-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B9%84%E0%B8%A5%E0%B9%88%E0%B9%82%E0%B8%97%E0%B8%99%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A9-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%89%E0%B8%B5%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-14-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B8%E0%B8%94-i.149829268.15643487810?sp_atk=655f268e-2a7b-4e53-b2bc-70abccebb4a5&amp;xptdk=655f268e-2a7b-4e53-b2bc-70abccebb4a5</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-jogggkxipdmv46_tn</v>
+        <v>https://down-th.img.susercontent.com/file/97a3d7d2185116120cbc4aaebd7c5975_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>-71%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>-14%</v>
       </c>
       <c r="E25" t="str">
-        <v>M265 กันแดดผิวหน้าฉ่ำวาวผุดผ่อง ตัวดัง หลอดม่วง SPF 35 PA+++ ขนาด40ML</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F25" t="str">
-        <v>฿99</v>
+        <v>สติกเกอร์ติดเล็บ ลายการ์ตูน CS Series น่ารัก ไล่โทนสี กันน้ำ ปลอดสารพิษ แบบฉีกได้ ทนทาน สําหรับตกแต่งเล็บ DIY 14 ชิ้น ต่อชุด</v>
       </c>
       <c r="G25" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>฿14</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="J25" t="str">
-        <v>ขายแล้ว 29.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K25" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v/>
+        <v>ขายแล้ว 56.5พัน ชิ้น</v>
+      </c>
+      <c r="M25" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/Kirei-Kirei-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-200-%E0%B8%A1%E0%B8%A5.-%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-DIMSTWV-%E0%B8%A5%E0%B8%94-40.--i.708767115.15561975129?sp_atk=0e8f0784-07eb-4acd-9d3e-efc8630da659&amp;xptdk=0e8f0784-07eb-4acd-9d3e-efc8630da659</v>
+        <v>https://shopee.co.th/-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-Bond-Wash-10-ml.-45-ml.-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-i.12332987.1160111243?sp_atk=ac357003-77b2-4c49-9c60-b963839f18c1&amp;xptdk=ac357003-77b2-4c49-9c60-b963839f18c1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/eb5802441f0d786b038194793671c96f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7quky-lfgmm7jc4pta8b_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>-29%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D26" t="str">
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>Kirei Kirei โฟมล้างมือ คิเรอิ คิเรอิ ชนิดถุงเติม 200 มล. [กรอกโค้ด DIMSTWV ลด 40.-]</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>฿35</v>
+        <v>[เจลล้างน้องชาย] สูตรอุ่น/เย็น/อ่อนโยน Bond Wash 10 ml. / 45 ml. เจลล้างจุดซ่อนเร้นสำหรับผู้ชาย</v>
       </c>
       <c r="G26" t="str">
-        <v>25</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>22</v>
       </c>
       <c r="J26" t="str">
-        <v>ขายแล้ว 58.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K26" t="str">
+        <v>85</v>
+      </c>
+      <c r="L26" t="str">
+        <v>ขายแล้ว 44.8พัน ชิ้น</v>
+      </c>
+      <c r="M26" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L26" t="str">
-        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/Abpopa-DAIMANPU%C2%AE-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.93231183.21544411741?sp_atk=8cbf73c7-87c8-47fe-9b7a-0bcc82284a60&amp;xptdk=8cbf73c7-87c8-47fe-9b7a-0bcc82284a60</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B8%AD%E0%B8%AD%E0%B9%82%E0%B8%95%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B9%87%E0%B8%AD%E0%B8%81--i.606860656.17100035386?sp_atk=37e9c5de-0ffc-4de6-9498-5d5ec3b30a21&amp;xptdk=37e9c5de-0ffc-4de6-9498-5d5ec3b30a21</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loay7nqcvrnr4a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-7quky-lk92m6g4u0sb19_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>-67%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-97%</v>
       </c>
       <c r="E27" t="str">
-        <v>Abpopa DAIMANPU® ลิปสติก เนื้อแมตต์ เจลลี่ เคลือบเงา ติดทนนาน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F27" t="str">
-        <v>-</v>
+        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง แบบหมุนออโต้ กันน้ำ พร้อมแปรง ติดทนนาน 1 ชิ้น [ผู้ขายชาวไทย พร้อมสต็อก]</v>
       </c>
       <c r="G27" t="str">
-        <v>27</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H27" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I27" t="str">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J27" t="str">
-        <v>ขายแล้ว 21.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K27" t="str">
-        <v>ต่างประเทศ</v>
+        <v>11</v>
       </c>
       <c r="L27" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 172.8พัน ชิ้น</v>
+      </c>
+      <c r="M27" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/Nagaraku-YY-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%95%E0%B8%B2%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%82%E0%B8%A7%E0%B9%89-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-i.80231784.3434109861?sp_atk=fc325fd3-89fc-44f8-b89a-6e1a6d752065&amp;xptdk=fc325fd3-89fc-44f8-b89a-6e1a6d752065</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88-BESTJ006-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-15-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3%F0%9F%94%A5(F-009)%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%9A%9A%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.190438850.3623855081?sp_atk=1b4ffb4a-3359-4f68-9c94-6e5142dc7d32&amp;xptdk=1b4ffb4a-3359-4f68-9c94-6e5142dc7d32</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/fe271ebe68b3bbeaf396ab3bb7993147_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7d90710e59ccea8c12c5e7193a9c6fa0_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>-17%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="E28" t="str">
-        <v>Nagaraku YY ขนตาปลอม ขนมิงค์ นุ่ม เบา ธรรมชาติ ต่อขนตา แต่งหน้า ตาข่าย ไขว้ ขนตาปลอม</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F28" t="str">
-        <v>฿118</v>
+        <v>🔥ใส่ BESTJ006 ลดเพิ่ม 15% ไม่มีขั้นต่ำ🔥(F-009)ส่งเร็วจากไทย🚚ค่าส่งถูกสุด 2แผ่น/ซองแผ่นแปะผม แผ่นติดผมแต่งหน้า แผ่นเก็บผม</v>
       </c>
       <c r="G28" t="str">
-        <v>98</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>฿6</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J28" t="str">
-        <v>ขายแล้ว 56.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K28" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L28" t="str">
-        <v/>
+        <v>ขายแล้ว 2.3ล้าน ชิ้น</v>
+      </c>
+      <c r="M28" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B9%81%E0%B8%A5%E0%B8%B0-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B7%E0%B9%8A%E0%B8%81%E0%B8%AA%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9C%E0%B8%A5%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-3-2.4-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.18062071.176305290?sp_atk=f0736d19-618a-4ac0-95f2-42709a463f8f&amp;xptdk=f0736d19-618a-4ac0-95f2-42709a463f8f</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%96%E0%B8%AD%E0%B8%94%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.13941876990?sp_atk=a8449efa-0b58-4477-a945-aa253614e6cc&amp;xptdk=a8449efa-0b58-4477-a945-aa253614e6cc</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkxpyb5rlywc22_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lq26f02kvghhaf_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>-50%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-90%</v>
       </c>
       <c r="E29" t="str">
-        <v>สีผึ้งแม่เลียบ แบบตลับ และ ลิปสตื๊กสผึ้งแม่เลียบ ลิปมัน ที่ช่วยผลัดเซลผิวปากที่คล้ำให้เปลี่ยนเป็นสีชมพู ขนาด 3,2.4 กรัม</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F29" t="str">
-        <v>-</v>
+        <v>เล็บปลอม พร้อมกาว กันน้ํา แบบถอดออกได้ จํานวน 24 ชิ้น</v>
       </c>
       <c r="G29" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>฿</v>
+        <v>฿100</v>
       </c>
       <c r="I29" t="str">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J29" t="str">
-        <v>ขายแล้ว 57.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L29" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 97.1พัน ชิ้น</v>
+      </c>
+      <c r="M29" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/OYAFUN-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.479652726.12164223229?sp_atk=a559605e-92f2-4459-8858-431d99144ef5&amp;xptdk=a559605e-92f2-4459-8858-431d99144ef5</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%AA%E0%B8%B8%E0%B8%94-%F0%9F%92%A5-Mizumi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Mistine-%E0%B8%A1%E0%B8%B4%E0%B8%AA%E0%B8%97%E0%B8%B5%E0%B8%99-NIVEA-%E0%B8%99%E0%B8%B5%E0%B9%80%E0%B8%A7%E0%B8%B5%E0%B8%A2-Johnson-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.47072761.19940999181?sp_atk=f27a30b0-aa19-4065-8d3f-f49aa138c830&amp;xptdk=f27a30b0-aa19-4065-8d3f-f49aa138c830</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/1847b5f4cd44b076d287a607b009019d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lob1sbksqjn4b4_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>-69%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>-64%</v>
       </c>
       <c r="E30" t="str">
-        <v>OYAFUN สีทาเล็บ ยาทาเล็บ สีทาเล็บลอกได้ กลิ่นหอม สีทาเล็บเจลไม่ต้องอบ  แห้งเร็ว ปกป้องเล็บ</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>-</v>
+        <v>💥 โลชั่น สุดฮิตขายดีสุด 💥 Mizumi มิซึมิ , Mistine มิสทีน , NIVEA นีเวีย , Johnson เซรั่มบำรุงผิวกาย กันแดด ครีมทาผิว</v>
       </c>
       <c r="G30" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I30" t="str">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="J30" t="str">
-        <v>ขายแล้ว 163.1พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K30" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>179</v>
       </c>
       <c r="L30" t="str">
-        <v/>
+        <v>ขายแล้ว 16.2พัน ชิ้น</v>
+      </c>
+      <c r="M30" t="str">
+        <v>จังหวัดนครราชสีมา</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/Magiccasa-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-6-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.228257194.21663743770?sp_atk=c94c4e79-6490-4ccd-bf46-6dc277c06bb8&amp;xptdk=c94c4e79-6490-4ccd-bf46-6dc277c06bb8</v>
+        <v>https://shopee.co.th/%E2%9A%A1%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9A%A1%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%88%E0%B8%B4%E0%B9%8B%E0%B8%A7-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%94%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%A5%E0%B8%94-i.68784821.9674557670?sp_atk=a3b444e0-a7a9-446c-984f-2b90edd78a78&amp;xptdk=a3b444e0-a7a9-446c-984f-2b90edd78a78</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23010-ukx0g7sjzymv6e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/77f4f2d51b0b056876fd3a711a883f14_tn</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-66%</v>
       </c>
       <c r="E31" t="str">
-        <v>Magiccasa ชุดลิปสติก เคลือบริมฝีปาก 6 ชิ้น</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>-</v>
+        <v>⚡พร้อมส่ง ครบสี⚡ลิปจิ๋ว ลิปเลิฟเวอร์ มีทุกสีของแท้ ของใหม่ล็อตล่าสุด กดติดตามมีโค้ดลด</v>
       </c>
       <c r="G31" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I31" t="str">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J31" t="str">
-        <v>ขายแล้ว 73.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K31" t="str">
-        <v>ต่างประเทศ</v>
+        <v>45</v>
       </c>
       <c r="L31" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 55.6พัน ชิ้น</v>
+      </c>
+      <c r="M31" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%97%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%9A%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.256773691.13871111767?sp_atk=0b1866bb-1e84-4bf9-90f1-15220d2fb90f&amp;xptdk=0b1866bb-1e84-4bf9-90f1-15220d2fb90f</v>
+        <v>https://shopee.co.th/Abpopa-MengJieShangPin%C2%AE-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87-%E0%B8%94%E0%B8%B9%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-5-%E0%B8%84%E0%B8%B9%E0%B9%88-i.93231183.18737569655?sp_atk=a75e4920-825d-42a9-ad1c-142b954281ab&amp;xptdk=a75e4920-825d-42a9-ad1c-142b954281ab</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/e919862813e8122d7cc29b39fde600f8_tn</v>
+        <v/>
       </c>
       <c r="C32" t="str">
-        <v>-26%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>-78%</v>
       </c>
       <c r="E32" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭  แปรงแต่งหน้า เซ็ทแปรงแต่งหน้า ขนนิ่ม ไม่บาดหน้า</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F32" t="str">
-        <v>-</v>
+        <v>Abpopa MengJieShangPin® ขนตาปลอม แบบบาง ดูเป็นธรรมชาติ 5 คู่</v>
       </c>
       <c r="G32" t="str">
-        <v>15</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H32" t="str">
-        <v>฿</v>
+        <v>฿159</v>
       </c>
       <c r="I32" t="str">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J32" t="str">
-        <v>ขายแล้ว 52.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K32" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L32" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 29.7พัน ชิ้น</v>
+      </c>
+      <c r="M32" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/Sleepy-Bear-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2%E0%B8%99%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%88%E0%B9%87%E0%B8%9A%E0%B8%AB%E0%B8%B9-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%99-Sleepybear-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9-i.376433227.8011078520?sp_atk=4f766fde-8e43-43fb-a8f8-3a514277e780&amp;xptdk=4f766fde-8e43-43fb-a8f8-3a514277e780</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.594863448.17292209952?sp_atk=fa917b3e-8014-42b7-90de-f17967cd2115&amp;xptdk=fa917b3e-8014-42b7-90de-f17967cd2115</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lpb9wglthap5b0_tn</v>
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>-33%</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-50%</v>
       </c>
       <c r="E33" t="str">
-        <v>Sleepy Bear ที่อุดหูเวลานอนดีที่สุด 1 คู่ ลดเสียง นุ่ม ใส่สบาย ไม่เจ็บหู ใช้ซ้ำได้ กันเสียงกรน Sleepybear ซิลิโคนอุดหู</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>฿89</v>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="G33" t="str">
-        <v>60</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="J33" t="str">
-        <v>ขายแล้ว 80.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K33" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>49</v>
       </c>
       <c r="L33" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 61.3พัน ชิ้น</v>
+      </c>
+      <c r="M33" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B9%E0%B8%A1%E0%B8%B4-Peptide-Acne-Gel-B3-Acne-Concentrate-Serum-%E0%B8%9F%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%A7-%E0%B8%94%E0%B8%B3-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-i.12617842.4658884885?sp_atk=e6540f2f-201d-4e15-b7dd-29601a0c4449&amp;xptdk=e6540f2f-201d-4e15-b7dd-29601a0c4449</v>
+        <v>https://shopee.co.th/%E2%9C%A8Bubble-Bath-%F0%9F%9B%81-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-100-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%F0%9F%8F%B7%EF%B8%8F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B02%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AA%E0%B8%9A%E0%B8%95%E0%B8%B2%E2%AD%90%EF%B8%8F%E0%B9%80%E0%B8%A3%E0%B8%97-Wholesale%F0%9F%8C%9F-i.448358305.18460517123?sp_atk=b98d0854-2951-4641-9bd9-0cbb851bc3ed&amp;xptdk=b98d0854-2951-4641-9bd9-0cbb851bc3ed</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-loxefpjt60kpee_tn</v>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>-70%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D34" t="str">
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>(หลอด)เจลแต้มสิว MizuMi เซรั่มลดรอยสิว MizuMi มิซึมิ มิซูมิ Peptide Acne Gel B3 Acne Concentrate Serum ฟ้า เขียว ดำ ชมพู</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F34" t="str">
-        <v>-</v>
+        <v>✨Bubble Bath 🛁 ไซส์ใหญ่ 100 กรัม  🏷️ฟองเยอะ2เท่า  หอมผ่อนคลาย ไม่แสบตา⭐️เรท Wholesale🌟</v>
       </c>
       <c r="G34" t="str">
-        <v>64</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I34" t="str">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="J34" t="str">
-        <v>ขายแล้ว 27.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K34" t="str">
-        <v>จังหวัดอุดรธานี</v>
+        <v>33</v>
       </c>
       <c r="L34" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 31พัน ชิ้น</v>
+      </c>
+      <c r="M34" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/Magic-CASA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%82%E0%B8%B2%E0%B8%A7-i.121739699.13194972783?sp_atk=6ef2912a-2f92-4661-9f64-82f339df1d0e&amp;xptdk=6ef2912a-2f92-4661-9f64-82f339df1d0e</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%A5%E0%B8%B8%E0%B8%94%E0%B8%A3%E0%B9%88%E0%B8%A7%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-i.148820479.9129920332?sp_atk=4d0483cf-5f1b-40f0-a43e-95b565bf4ec4&amp;xptdk=4d0483cf-5f1b-40f0-a43e-95b565bf4ec4</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/7294612cfd80c0084ba693a4d2dd95e8_tn</v>
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>-80%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-99%</v>
       </c>
       <c r="E35" t="str">
-        <v>Magic CASA ลิปสติก เนื้อแมตต์กํามะหยี่ ให้ความชุ่มชื้น ไม่แห้ง และขาว</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F35" t="str">
-        <v>-</v>
+        <v>มาสคาร่า กันน้ำ ติดทนนาน ขนตายาว ไม่หลุดร่วงง่าย หัวแปรงยาว และบางเป็นธรรมชาติ นุ่ม</v>
       </c>
       <c r="G35" t="str">
-        <v>5</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H35" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I35" t="str">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J35" t="str">
-        <v>ขายแล้ว 45.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K35" t="str">
+        <v>9</v>
+      </c>
+      <c r="L35" t="str">
+        <v>ขายแล้ว 581.6พัน ชิ้น</v>
+      </c>
+      <c r="M35" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L35" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88-BESTJ006-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-15-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3%F0%9F%94%A5(F-009)%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%9A%9A%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.190438850.3623855081?sp_atk=3811c9b7-8b7e-4db2-9a39-7c006a04d9dd&amp;xptdk=3811c9b7-8b7e-4db2-9a39-7c006a04d9dd</v>
+        <v>https://shopee.co.th/-1%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-D.Dent-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%94%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A39%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94-%E0%B8%A1%E0%B8%B5%E0%B8%9F%E0%B8%A5%E0%B8%B9%E0%B8%AD%E0%B8%AD%E0%B9%84%E0%B8%A3%E0%B8%94%E0%B9%8C-1500ppm.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-g.-i.298976044.18365491193?sp_atk=f166f853-6011-4c59-a7cb-a9bbf2c2cc8a&amp;xptdk=f166f853-6011-4c59-a7cb-a9bbf2c2cc8a</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/7d90710e59ccea8c12c5e7193a9c6fa0_tn</v>
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>-83%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-98%</v>
       </c>
       <c r="E36" t="str">
-        <v>🔥ใส่ BESTJ006 ลดเพิ่ม 15% ไม่มีขั้นต่ำ🔥(F-009)ส่งเร็วจากไทย🚚ค่าส่งถูกสุด 2แผ่น/ซองแผ่นแปะผม แผ่นติดผมแต่งหน้า แผ่นเก็บผม</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F36" t="str">
-        <v>฿6</v>
+        <v>[1หลอด] D.Dent ยาสีฟันดีเด้นท์ ยาสีฟันสมุนไพร9ชนิด มีฟลูออไรด์ 1500ppm. ขนาด 100 g.</v>
       </c>
       <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>฿59</v>
+      </c>
+      <c r="I36" t="str">
         <v>1</v>
       </c>
-      <c r="H36" t="str">
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <v/>
-      </c>
       <c r="J36" t="str">
-        <v>ขายแล้ว 2.3ล้าน ชิ้น</v>
+        <v/>
       </c>
       <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v>ขายแล้ว 42.9พัน ชิ้น</v>
+      </c>
+      <c r="M36" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="L36" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/D.Dent-%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%94%E0%B8%99%E0%B8%97%E0%B9%8C-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A3(%E0%B9%84%E0%B8%94%E0%B9%892%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)-(1%E0%B9%81%E0%B8%96%E0%B8%A11)-i.154778270.19145235781?sp_atk=1808d08e-b754-4c6a-9822-be06b7fcf2ea&amp;xptdk=1808d08e-b754-4c6a-9822-be06b7fcf2ea</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87-DIY-8-%E0%B8%A1%E0%B8%A5.-i.523478166.16409828747?sp_atk=8bbb1955-edf1-4b30-9c84-6e089cc23bca&amp;xptdk=8bbb1955-edf1-4b30-9c84-6e089cc23bca</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/213ba9a5658dc78ec89d74c98a88bab7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ee675c5de17f09079ccc5327e5af31c5_tn</v>
       </c>
       <c r="C37" t="str">
-        <v>-73%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-78%</v>
       </c>
       <c r="E37" t="str">
-        <v>D.Dent ดีเดนท์ ยาสีฟันสมุนไพร(ได้2หลอด) (1แถม1)</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F37" t="str">
-        <v>฿129</v>
+        <v>กาวติดเล็บเจล ชิมเมอร์ กลิตเตอร์ สะท้อนแสง DIY 8 มล.</v>
       </c>
       <c r="G37" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="J37" t="str">
-        <v>ขายแล้ว 89.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>30</v>
       </c>
       <c r="L37" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 54.6พัน ชิ้น</v>
+      </c>
+      <c r="M37" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%82%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B8%A5-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-Lolane-Pixxel-Shampoo-%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%A1%E0%B8%B52%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-i.156745030.4253831240?sp_atk=175cf9bb-c362-4d99-a663-2c8ee404fb54&amp;xptdk=175cf9bb-c362-4d99-a663-2c8ee404fb54</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%9F%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%8B%E0%B8%B5-35%E0%B8%97l.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%84%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C-i.52708754.13254092783?sp_atk=511aef86-1ab6-4f16-b87f-0d0555bf75b4&amp;xptdk=511aef86-1ab6-4f16-b87f-0d0555bf75b4</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lnje3ze90lyo6d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b401ff96fe19821db42f7182c4a03eba_tn</v>
       </c>
       <c r="C38" t="str">
-        <v>-2%</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>-99%</v>
       </c>
       <c r="E38" t="str">
-        <v>สีใหม่ #โลแลน พิกเซล #แชมพูเพิ่มประกายสีผม  #Lolane #Pixxel  #Shampoo #เทา มี2ขนาด</v>
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v>-</v>
+        <v>น้ำหอมมิดไนท์แฟนตาซี 35ทl. กลิ่นเทียบเคียงแบรนด์</v>
       </c>
       <c r="G38" t="str">
-        <v>95</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I38" t="str">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="J38" t="str">
-        <v>ขายแล้ว 28.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K38" t="str">
+        <v>36</v>
+      </c>
+      <c r="L38" t="str">
+        <v>ขายแล้ว 31.8พัน ชิ้น</v>
+      </c>
+      <c r="M38" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L38" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.127255001.9412365800?sp_atk=79da8d1a-3314-47ef-aac7-02ceab56df08&amp;xptdk=79da8d1a-3314-47ef-aac7-02ceab56df08</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%9E-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A724%E0%B8%8A%E0%B8%A1-Pinkyfocus-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.851310463.21349699123?sp_atk=590a27d9-452b-45c2-bc4d-82ace170ce75&amp;xptdk=590a27d9-452b-45c2-bc4d-82ace170ce75</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/58471b81da524002420adbb088516c2e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b5a08018a9a468957a215d4ed4225e87_tn</v>
       </c>
       <c r="C39" t="str">
-        <v>-83%</v>
+        <v/>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>-65%</v>
       </c>
       <c r="E39" t="str">
-        <v>ลิปสติก ลิปกลอส เนื้อเจลลี่ กันน้ำ ติดทนนาน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F39" t="str">
-        <v>-</v>
+        <v>กรุงเทพ ส่งไว24ชม Pinkyfocus ลิปสติกโคลน เคลือบริมฝีปาก ติดทนนาน ไม่ซีดจาง สําหรับผู้หญิง</v>
       </c>
       <c r="G39" t="str">
-        <v>11</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>฿</v>
+        <v>฿80</v>
       </c>
       <c r="I39" t="str">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J39" t="str">
-        <v>ขายแล้ว 19.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K39" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L39" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 13.4พัน ชิ้น</v>
+      </c>
+      <c r="M39" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AB%E0%B8%B2%E0%B8%87%E0%B8%9B%E0%B8%A5%E0%B8%B2-%E0%B8%9A%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9A%E0%B8%B5%E0%B9%89-10D-i.162360158.14877522209?sp_atk=6ca140e3-9f3a-409d-8d0d-d96dad402fa6&amp;xptdk=6ca140e3-9f3a-409d-8d0d-d96dad402fa6</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B9%81%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C75-1-000ml.%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%81(%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%A1)-i.217059246.12124789072?sp_atk=419dcda3-4c77-41fa-a2a0-554b521f1b50&amp;xptdk=419dcda3-4c77-41fa-a2a0-554b521f1b50</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-ljdm62r1da08ec_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7de06b663eb1aa4012b89370e9f27faa_tn</v>
       </c>
       <c r="C40" t="str">
-        <v>-58%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>-15%</v>
       </c>
       <c r="E40" t="str">
-        <v>ขนตาปลอม หางปลา+บาร์บี้ 10D</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F40" t="str">
-        <v>-</v>
+        <v>สเปรย์แอลกอฮอล์75%1,000ml.หอมมากกก(กลิ่นแบรนด์เนม)</v>
       </c>
       <c r="G40" t="str">
-        <v>46</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>฿</v>
+        <v>฿80</v>
       </c>
       <c r="I40" t="str">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="J40" t="str">
-        <v>ขายแล้ว 34.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v>ขายแล้ว 153.3พัน ชิ้น</v>
+      </c>
+      <c r="M40" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="L40" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B8%AA%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-18%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3-Innisfree-My-Real-Squeeze-Mask-20ml-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA-i.219286622.9257869455?sp_atk=879fb90d-7f3c-4763-8e3c-65c4dc0fb137&amp;xptdk=879fb90d-7f3c-4763-8e3c-65c4dc0fb137</v>
+        <v>https://shopee.co.th/KT-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%86-%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%88%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.272876306.7148794213?sp_atk=46a93c80-05ae-4eb1-b5b3-1825c3bf9127&amp;xptdk=46a93c80-05ae-4eb1-b5b3-1825c3bf9127</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/ee48e73a3a4b98ba9dff014fc15c3dcc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/29e95fb581c0fa738d1822e1a8bdb446_tn</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -1908,788 +2028,851 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <v>อินนิสฟรี มาส์กหน้า 18สูตร Innisfree My Real Squeeze Mask 20ml แผ่นมาส์กหน้า มาร์คหน้า มาร์กหน้า แผ่นมาร์ส</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>KT สติ๊กเกอร์ติดเล็บ ลายน่ารักมากๆ มาใหม่จ้า พร้อมส่ง</v>
       </c>
       <c r="G41" t="str">
-        <v>18</v>
+        <v/>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="J41" t="str">
-        <v>ขายแล้ว 409.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v>ขายแล้ว 32พัน ชิ้น</v>
+      </c>
+      <c r="M41" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L41" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-Janua-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30ml.-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-i.13357361.11585997871?sp_atk=ebd7c677-72c7-48b6-9d0d-4ae8273df4c0&amp;xptdk=ebd7c677-72c7-48b6-9d0d-4ae8273df4c0</v>
+        <v>https://shopee.co.th/-%E0%B8%AD%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B1%E0%B8%9A1%E0%B8%9A%E0%B8%99shopee-%E0%B8%9C%E0%B8%87%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A3-%E0%B8%9E%E0%B8%AD%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E2%80%8B-%E0%B8%AA%E0%B8%84%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%82%E0%B8%A1%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B2-%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B9%81%E0%B8%9F-%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B8%9E%E0%B8%AD%E0%B8%87-%E0%B9%84%E0%B8%9E%E0%B8%A5-%E0%B8%97%E0%B8%B3%E0%B8%AA%E0%B8%9A%E0%B8%B9%E0%B9%88-%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%94%E0%B8%B5-i.238143169.5741551363?sp_atk=2a865211-f9b8-41a1-9f70-febbd98c4713&amp;xptdk=2a865211-f9b8-41a1-9f70-febbd98c4713</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-lff8jiy21jn252_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-llvpf2g6l85q54_tn</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-97%</v>
       </c>
       <c r="E42" t="str">
-        <v>น้ำหอมแจนยัวร์ Janua ขนาด 30ml. แพ็คเก็จใหม่ (พร้อมส่ง)</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F42" t="str">
-        <v>-</v>
+        <v>[อันดับ1บนshopee] ผงสมุนไพร พอกหน้า ขัดผิว​ สครับผิวขาว ขมิ้น ทานาคา กากกาแฟ เกลือขัดผิว ดินสอพอง ไพล ทำสบู่ เกรดอย่างดี</v>
       </c>
       <c r="G42" t="str">
-        <v>290</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H42" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I42" t="str">
-        <v>1,250</v>
+        <v>1</v>
       </c>
       <c r="J42" t="str">
-        <v>ขายแล้ว 6.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K42" t="str">
-        <v>จังหวัดน่าน</v>
+        <v>29</v>
       </c>
       <c r="L42" t="str">
-        <v/>
+        <v>ขายแล้ว 63.6พัน ชิ้น</v>
+      </c>
+      <c r="M42" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/S-09%F0%9F%8C%9FXixi-Eye-Shadow-Pen-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%97%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%95%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%94%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%89-i.250814349.13419007708?sp_atk=1ffdd1f8-c365-410d-9b9b-d552b533806e&amp;xptdk=1ffdd1f8-c365-410d-9b9b-d552b533806e</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.127255001.9412365800?sp_atk=f07431be-dbea-4ecb-8ca6-b93bd8ca756a&amp;xptdk=f07431be-dbea-4ecb-8ca6-b93bd8ca756a</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/b60e2b4e91e3929be089346ec4bd17cc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/58471b81da524002420adbb088516c2e_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>-51%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="E43" t="str">
-        <v>S-09🌟Xixi Eye Shadow Pen อายแชโดว์+อินไลเนอร์แบบแท่ง ไฮไลท์ อายแชโดว์ทาหัวตา สีวาว เขียนใต้ตาเป็นดอลลี่อาย ติดทน กันนำ้</v>
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v>-</v>
+        <v>ลิปสติก ลิปกลอส เนื้อเจลลี่ กันน้ำ ติดทนนาน</v>
       </c>
       <c r="G43" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I43" t="str">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J43" t="str">
-        <v>ขายแล้ว 31.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K43" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>12</v>
       </c>
       <c r="L43" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 19.3พัน ชิ้น</v>
+      </c>
+      <c r="M43" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B8%9F%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99-%E0%B8%82%E0%B8%B2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%AD%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B5%E0%B8%94-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-i.526502504.17200364024?sp_atk=f139049e-ee05-49e1-b414-e01150fbb317&amp;xptdk=f139049e-ee05-49e1-b414-e01150fbb317</v>
+        <v>https://shopee.co.th/NAGARAKU-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-16-%E0%B9%81%E0%B8%96%E0%B8%A7-i.80231784.2909708341?sp_atk=bc6dfea4-48d2-4a8e-9d37-8c659b5a9826&amp;xptdk=bc6dfea4-48d2-4a8e-9d37-8c659b5a9826</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-jynzsmdt9rovb0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8e4f2fac5bcc0a78a014d5b3bea62656_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>-57%</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>-12%</v>
       </c>
       <c r="E44" t="str">
-        <v>🔥เครื่องกําจัดขนไฟฟ้า ขนาดเล็ก สําหรับผู้หญิง ชิ้นส่วนส่วนตัว รักแร้ ใบหน้า ริมฝีปาก ขน ขา ที่ปอกผม มีด เครื่องกำจัดขน</v>
+        <v/>
       </c>
       <c r="F44" t="str">
-        <v>-</v>
+        <v>NAGARAKU ขนตาปลอม ขนมิงค์เทียม นิ่ม 16 แถว</v>
       </c>
       <c r="G44" t="str">
-        <v>60</v>
+        <v/>
       </c>
       <c r="H44" t="str">
-        <v>฿</v>
+        <v>฿78</v>
       </c>
       <c r="I44" t="str">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="J44" t="str">
-        <v>ขายแล้ว 50.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K44" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L44" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 92.8พัน ชิ้น</v>
+      </c>
+      <c r="M44" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/%E0%B8%A3%E0%B8%94%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-RADA-Lady-Care-Dara-Serum-%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%94%E0%B8%B2%E0%B8%A3%E0%B8%B2-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-i.824626228.17080110584?sp_atk=e8375e00-a204-47d3-b9f8-affa669c14b8&amp;xptdk=e8375e00-a204-47d3-b9f8-affa669c14b8</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A7-i.389569487.4679605013?sp_atk=15b40806-a598-4fee-aec1-b76c5669ebcb&amp;xptdk=15b40806-a598-4fee-aec1-b76c5669ebcb</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll049aribyss23_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ljwjtwpuqisd35_tn</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>-96%</v>
       </c>
       <c r="E45" t="str">
-        <v>รดาเลดี้แคร์ RADA Lady Care  Dara Serum ล้างจุดซ่อนเร้น เลดี้/ดารา ขวดเล็กและหัวปั๊ม สเปรย์บำรุงกลิ่น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F45" t="str">
-        <v>-</v>
+        <v>เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กาว</v>
       </c>
       <c r="G45" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H45" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I45" t="str">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="J45" t="str">
-        <v>ขายแล้ว 59.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K45" t="str">
-        <v>จังหวัดปราจีนบุรี</v>
+        <v>8</v>
       </c>
       <c r="L45" t="str">
-        <v/>
+        <v>ขายแล้ว 494.7พัน ชิ้น</v>
+      </c>
+      <c r="M45" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.656187828.17856786016?sp_atk=82dc9fd1-512a-4bb6-9f69-360d9a48272c&amp;xptdk=82dc9fd1-512a-4bb6-9f69-360d9a48272c</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-150-%E0%B8%A1%E0%B8%A5-200-%E0%B8%A1%E0%B8%A5-i.299697925.20544835873?sp_atk=0f6006c3-d3a3-4e12-bdce-8e332143bc8b&amp;xptdk=0f6006c3-d3a3-4e12-bdce-8e332143bc8b</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-ljz67566zkuh9a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e0259f3be6b8a454bed857dd2b967fdb_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>-85%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-41%</v>
       </c>
       <c r="E46" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F46" t="str">
-        <v>-</v>
+        <v>ดรายแชมพู สเปรย์สระผมแห้ง สเปรย์ฉีดผมแห้ง แชมพูแห้ง สเปรย์สระผมแบบแห้ง ผมแห้ง กำจัดผมมันโดยไม่ต้องสระผม 150 มล/200 มล</v>
       </c>
       <c r="G46" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H46" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I46" t="str">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J46" t="str">
-        <v>ขายแล้ว 90.1พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K46" t="str">
+        <v>29</v>
+      </c>
+      <c r="L46" t="str">
+        <v>ขายแล้ว 44.1พัน ชิ้น</v>
+      </c>
+      <c r="M46" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L46" t="str">
-        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%97%E0%B8%B2%E0%B8%95%E0%B8%B2-4.8g-OD276-odbo-Signature-Eyeshadow-Palette-i.1151469.19027757698?sp_atk=b2f30a13-2fa3-44f2-962f-9b00606c1c55&amp;xptdk=b2f30a13-2fa3-44f2-962f-9b00606c1c55</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-liplover-%E2%9D%97%E2%9D%97%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9D%97%E2%9D%97-i.29272211.8504953889?sp_atk=997cfbd3-2c7a-4f3c-bbe2-2c19c8e744e5&amp;xptdk=997cfbd3-2c7a-4f3c-bbe2-2c19c8e744e5</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/c5b880d1f22ec239e9695d361c406af1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lljcon4d5dxa17_tn</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>-98%</v>
       </c>
       <c r="E47" t="str">
-        <v>โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท ทาตา 4.8g OD276 odbo Signature Eyeshadow Palette</v>
+        <v/>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>ลิปเลิฟเวอร์ liplover  ❗❗ล็อตล่าสุด พร้อมส่งครบสี❗❗</v>
       </c>
       <c r="G47" t="str">
-        <v>82</v>
+        <v/>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J47" t="str">
-        <v>ขายแล้ว 28พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K47" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>38</v>
       </c>
       <c r="L47" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 147.8พัน ชิ้น</v>
+      </c>
+      <c r="M47" t="str">
+        <v>จังหวัดนครศรีธรรมราช</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A2%E0%B8%B8%E0%B8%94-30-2-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-Janua-%F0%9F%A7%B8-%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%B2%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AD%E0%B8%AD%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.2133700.15565177415?sp_atk=8bb1c7d0-5d5f-45c9-bed0-fa1f5768595d&amp;xptdk=8bb1c7d0-5d5f-45c9-bed0-fa1f5768595d</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%841-%E0%B9%81%E0%B8%A5%E0%B8%B0-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%89%E0%B8%B2-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%9E%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B8%B5%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%99-i.267190587.10487214152?sp_atk=2d15a020-e594-47ae-b65e-61d2ca0321aa&amp;xptdk=2d15a020-e594-47ae-b65e-61d2ca0321aa</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lncbp57w2khca1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/eabd2e6f2089470538a9e7f7fa130422_tn</v>
       </c>
       <c r="C48" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D48" t="str">
-        <v/>
+        <v>-50%</v>
       </c>
       <c r="E48" t="str">
-        <v>หยุด 30-2 น้ำหอม Janua 🧸 แบ่งขาย พร้อมส่งทุกกลิ่น มีของแถมให้ทุกออเดอร์</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F48" t="str">
-        <v>-</v>
+        <v>กิ๊บยกโคนผม กิ๊บม้วนผม แพ็ค1 และ 2 ชิ้น โรลยกโคนผม ม้วนผมหน้าม้า โรลเพิ่มวอลลุ่ม ช่วยยกโคนให้ผมดูหนา พองสวย ผมไม่ลีบแบน</v>
       </c>
       <c r="G48" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="H48" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I48" t="str">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="J48" t="str">
-        <v>ขายแล้ว 28.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K48" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>18</v>
       </c>
       <c r="L48" t="str">
-        <v/>
+        <v>ขายแล้ว 43.1พัน ชิ้น</v>
+      </c>
+      <c r="M48" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8F-DAYSE-x-COSLUXE-Lash-Adhesive-White-Waterproof-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A5%E0%B8%B8%E0%B8%84-%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.11210871.886718034?sp_atk=2bc829e3-9486-490d-80ff-9dfd6681bcc0&amp;xptdk=2bc829e3-9486-490d-80ff-9dfd6681bcc0</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%83%E0%B8%AA-5D-%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B9%81%E0%B8%8A%E0%B9%88%E0%B8%9B%E0%B8%B4%E0%B8%94-UV-LED-%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%87-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%AA%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%9F-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-i.523478166.13395364261?sp_atk=89f3e27e-8d74-4fc9-b218-62c3b1c28bcc&amp;xptdk=89f3e27e-8d74-4fc9-b218-62c3b1c28bcc</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnb-lq1gna9kinmu60_tn</v>
+        <v>https://down-th.img.susercontent.com/file/a030c28e3d33189406817a6fd55123eb_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>-9%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-48%</v>
       </c>
       <c r="E49" t="str">
-        <v>♦️ของแท้·ส่งด่วน·ถูก♦️ DAYSE x COSLUXE: Lash Adhesive White Waterproof : คอสลุค กาว กาวติดขนตาปลอม กาวติดขนตา</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F49" t="str">
-        <v>-</v>
+        <v>สีเจลใส 5D สีแคนดี้ แช่ปิด UV LED เจล สีมาการอง เจลลี่ ส่องไฟ กาวติดเล็บ ตกแต่งเล็บเจล</v>
       </c>
       <c r="G49" t="str">
-        <v>32</v>
+        <v/>
       </c>
       <c r="H49" t="str">
-        <v>฿</v>
+        <v>฿56</v>
       </c>
       <c r="I49" t="str">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="J49" t="str">
-        <v>ขายแล้ว 56.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L49" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 25.2พัน ชิ้น</v>
+      </c>
+      <c r="M49" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-Kale-Plus-shinning-cateye-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%A1%E0%B8%A7%E0%B8%95%E0%B8%B2-8ml-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.426969735.16240275063?sp_atk=3d237c3c-c785-4061-8444-592b16575ad8&amp;xptdk=3d237c3c-c785-4061-8444-592b16575ad8</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-i.223833101.6671578509?sp_atk=0d83d01b-a3be-4bf7-beca-37dd3dd915ac&amp;xptdk=0d83d01b-a3be-4bf7-beca-37dd3dd915ac</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/c8a50d61daeb106aa5747676b6e056b5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/06e629767fff200192e422bc2130928c_tn</v>
       </c>
       <c r="C50" t="str">
-        <v>-74%</v>
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>สีทาเล็บลูกแก้ว Kale Plus shinning cateye สีทาเล็บเจล สีลูกแก้ว แมวตา 8ml พร้อมส่ง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F50" t="str">
-        <v>฿148</v>
+        <v>สีผมโคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีผม ขายถูกสุด‼️</v>
       </c>
       <c r="G50" t="str">
-        <v>39</v>
+        <v/>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="J50" t="str">
-        <v>ขายแล้ว 19.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L50" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 51.6พัน ชิ้น</v>
+      </c>
+      <c r="M50" t="str">
+        <v>จังหวัดราชบุรี</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/Carbon-Store-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-24-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.569324763.18034682549?sp_atk=e84c909e-2d4d-42fe-ad54-d1e58e79fa7c&amp;xptdk=e84c909e-2d4d-42fe-ad54-d1e58e79fa7c</v>
+        <v>https://shopee.co.th/Beikott-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eyeshadow-7%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%95%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-i.606860656.18361242759?sp_atk=ce714ed2-ffa4-4228-ae75-f27de9c5aabc&amp;xptdk=ce714ed2-ffa4-4228-ae75-f27de9c5aabc</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-nfem16hhcvkvc5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-lkc6rh79cpyz93_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>-80%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-68%</v>
       </c>
       <c r="E51" t="str">
-        <v>Carbon Store อายไลเนอร์ ปากกาเขียนขอบตา กันน้ำ ติดทนนาน 24 ชั่วโมง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F51" t="str">
-        <v>฿5</v>
+        <v>Beikott อายแชโดว์ อายแชโดว์พาเลท พาเลตอายแชโดว์กันน้ำ เนื้อใยไหม ประกายชิมเมอร์ Eyeshadow 7สี เตรียมจัดส่งสินค้า</v>
       </c>
       <c r="G51" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I51" t="str">
-        <v/>
+        <v>22</v>
       </c>
       <c r="J51" t="str">
-        <v>ขายแล้ว 37.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K51" t="str">
-        <v>ต่างประเทศ</v>
+        <v>24</v>
       </c>
       <c r="L51" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 31พัน ชิ้น</v>
+      </c>
+      <c r="M51" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)-%E0%B8%88%E0%B8%B8%E0%B8%AC%E0%B8%B2%E0%B9%80%E0%B8%AE%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%9A-Jula's-Herb-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87-Jula-julahreb-DDcream-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%B3%E0%B9%84%E0%B8%A2-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-C1-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-i.32233698.10829642164?sp_atk=23f0a0a9-be43-4657-8605-7d1f090cd38f&amp;xptdk=23f0a0a9-be43-4657-8605-7d1f090cd38f</v>
+        <v>https://shopee.co.th/ANUA-Heartleaf-77-Soothing-Toner-%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B8%A7-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%82%E0%B8%A5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%AA%E0%B8%9A.-i.70998059.6946452197?sp_atk=d1b9173d-5575-49f0-936d-565079ee84ba&amp;xptdk=d1b9173d-5575-49f0-936d-565079ee84ba</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnpaiayqkpyf28_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn8-locuq3rs7lnk5e_tn</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>-99%</v>
       </c>
       <c r="E52" t="str">
-        <v>(หลอด/ยกกล่อง) จุฬาเฮิร์บ Jula's Herb ครีมซอง Jula julahreb DDcream เซรั่มลำไย ดีดีครีม C1 เซรั่มแตงโม ดีดีแตงโม</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>-</v>
+        <v>ANUA Heartleaf 77% Soothing Toner อานัว โทนเนอร์พี่จุน ปลอบประโลมผิวและลดการอักเสบ.</v>
       </c>
       <c r="G52" t="str">
-        <v>158</v>
+        <v/>
       </c>
       <c r="H52" t="str">
-        <v>฿</v>
+        <v>฿200</v>
       </c>
       <c r="I52" t="str">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="J52" t="str">
-        <v>ขายแล้ว 57.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K52" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v/>
+        <v>ขายแล้ว 44.8พัน ชิ้น</v>
+      </c>
+      <c r="M52" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/P-01%F0%9F%8C%9F%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%81%E0%B8%B4%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-i.250814349.22706375719?sp_atk=240e40cf-8892-495d-8373-8b52f0874b85&amp;xptdk=240e40cf-8892-495d-8373-8b52f0874b85</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5SALE%F0%9F%92%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%A5%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-i.177254002.4204976287?sp_atk=33c098f3-7c07-451c-beea-641075eebf2a&amp;xptdk=33c098f3-7c07-451c-beea-641075eebf2a</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-ubzn5ohm33jv41_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5fac3b3182eaa8b6e436adbeb5990c8e_tn</v>
       </c>
       <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
         <v>-75%</v>
       </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
       <c r="E53" t="str">
-        <v>P-01🌟พัฟฟองน้ำแต่งหน้าพัฟขนาดใหญ่สวมนิ้ว สําหรับลงรองพื้นคอนซีลเลอร์ นุ่มพิเศษ ฟองน้ำรองพื้น เกลี่ยรองพื้น ไม่กินรองพื้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F53" t="str">
-        <v>-</v>
+        <v>💥SALE💥ครีมทามือสูตรยอดนิยม 30 กรัม เพิ่มความชุ่มชื้น ผิวมือเนียนนุ่มชุ่มชื้น กลิ่นหอม ราคาลดพิเศษ</v>
       </c>
       <c r="G53" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="H53" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="I53" t="str">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J53" t="str">
-        <v>ขายแล้ว 26.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v>ขายแล้ว 304.1พัน ชิ้น</v>
+      </c>
+      <c r="M53" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L53" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-150-%E0%B8%A1%E0%B8%A5-200-%E0%B8%A1%E0%B8%A5-i.299697925.20544835873?sp_atk=fe25e113-a116-4dae-9024-0e539f5518e9&amp;xptdk=fe25e113-a116-4dae-9024-0e539f5518e9</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-8-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-ml-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-Perfume-Body-Lotion-i.4102104.14558845296?sp_atk=083f4758-53a9-4e95-9c7c-6ae09ebcca6a&amp;xptdk=083f4758-53a9-4e95-9c7c-6ae09ebcca6a</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/e0259f3be6b8a454bed857dd2b967fdb_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cb7e73faa59ee1dacbcf5f412af89fc1_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>-41%</v>
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-9%</v>
       </c>
       <c r="E54" t="str">
-        <v>ดรายแชมพู สเปรย์สระผมแห้ง สเปรย์ฉีดผมแห้ง แชมพูแห้ง สเปรย์สระผมแบบแห้ง ผมแห้ง กำจัดผมมันโดยไม่ต้องสระผม 150 มล/200 มล</v>
+        <v/>
       </c>
       <c r="F54" t="str">
-        <v>-</v>
+        <v>พร้อมส่ง น้ำหอม โลชั่นน้ำหอมมายช้อยส์ 8 กลิ่น ขนาด 100 ml กลิ่นหอมติดทนนาน Perfume Body Lotion</v>
       </c>
       <c r="G54" t="str">
-        <v>25</v>
+        <v/>
       </c>
       <c r="H54" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I54" t="str">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J54" t="str">
-        <v>ขายแล้ว 43.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K54" t="str">
+        <v>22</v>
+      </c>
+      <c r="L54" t="str">
+        <v>ขายแล้ว 47.7พัน ชิ้น</v>
+      </c>
+      <c r="M54" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L54" t="str">
-        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/Pinkflash-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A7%E0%B8%B1%E0%B8%99-i.320847166.4662106850?sp_atk=2a7073cc-eaa3-4c87-b457-06f000f52c30&amp;xptdk=2a7073cc-eaa3-4c87-b457-06f000f52c30</v>
+        <v>https://shopee.co.th/2-In-1-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%B1%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-i.345976058.15324390061?sp_atk=1bce6b42-db13-49aa-b1fc-20b1a4980061&amp;xptdk=1bce6b42-db13-49aa-b1fc-20b1a4980061</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lo4ugkkbpbfn4f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-en7yrxknw3nv37_tn</v>
       </c>
       <c r="C55" t="str">
-        <v>-89%</v>
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-84%</v>
       </c>
       <c r="E55" t="str">
-        <v>Pinkflash รองพื้น เนื้อแมตต์ บางเบา ติดทนทานตลอดวัน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F55" t="str">
-        <v>฿300</v>
+        <v>2 In 1 ปากกาอายไลเนอร์ แสตมป์สองหัว กันน้ำ ติดทนนาน แห้งเร็ว สําหรับผู้เริ่มต้น</v>
       </c>
       <c r="G55" t="str">
-        <v>32</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I55" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="J55" t="str">
-        <v>ขายแล้ว 56.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K55" t="str">
+        <v>15</v>
+      </c>
+      <c r="L55" t="str">
+        <v>ขายแล้ว 44.6พัน ชิ้น</v>
+      </c>
+      <c r="M55" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="L55" t="str">
-        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E2%9C%A8BANOBAGI-Final-Sleeping-Mask-Whitening-Plus-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C-4-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88!!-i.83719543.23905027014?sp_atk=408adf5e-3c1a-4a5f-8d02-8a3cb368ea7c&amp;xptdk=408adf5e-3c1a-4a5f-8d02-8a3cb368ea7c</v>
+        <v>https://shopee.co.th/LANBENA-Eye-Mask-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3-60-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.86465195.4146028480?sp_atk=94c06329-9d00-4a3d-9c9c-5fc46830896b&amp;xptdk=94c06329-9d00-4a3d-9c9c-5fc46830896b</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-lhh4egxcxg9v47_tn</v>
+        <v>https://down-th.img.susercontent.com/file/913932a458059b9c9276b009020dd9da_tn</v>
       </c>
       <c r="C56" t="str">
-        <v>-47%</v>
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>-78%</v>
       </c>
       <c r="E56" t="str">
-        <v>✨ใหม่✨BANOBAGI Final Sleeping Mask - Whitening Plus สลีปปิ้งมาสก์ 4 สูตรใหม่!!</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F56" t="str">
-        <v>฿88</v>
+        <v>LANBENA Eye Mask อายมาร์ค มาร์คใต้ตา มาร์คใต้ตา อายมาสก์ บำรุงรอบดวงตา ช่วยลดริ้วรอย และความหมองคล้ำ 60 ชิ้น</v>
       </c>
       <c r="G56" t="str">
-        <v>47</v>
+        <v/>
       </c>
       <c r="H56" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I56" t="str">
-        <v/>
+        <v>99</v>
       </c>
       <c r="J56" t="str">
-        <v>ขายแล้ว 78.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K56" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>289</v>
       </c>
       <c r="L56" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 24.3พัน ชิ้น</v>
+      </c>
+      <c r="M56" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/Abpopa-MengJieShangPin%C2%AE-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87-%E0%B8%94%E0%B8%B9%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-5-%E0%B8%84%E0%B8%B9%E0%B9%88-i.93231183.18737569655?sp_atk=20377dbc-0a27-406e-80bd-eabec7253514&amp;xptdk=20377dbc-0a27-406e-80bd-eabec7253514</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-Kale-Plus-shinning-cateye-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%A1%E0%B8%A7%E0%B8%95%E0%B8%B2-8ml-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.426969735.16240275063?sp_atk=85a1ba40-a4a2-4f02-be4f-685f9e96fae3&amp;xptdk=85a1ba40-a4a2-4f02-be4f-685f9e96fae3</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/vn-11134201-23030-0bel62r4jcova6_tn</v>
+        <v/>
       </c>
       <c r="C57" t="str">
-        <v>-78%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-74%</v>
       </c>
       <c r="E57" t="str">
-        <v>Abpopa MengJieShangPin® ขนตาปลอม แบบบาง ดูเป็นธรรมชาติ 5 คู่</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F57" t="str">
-        <v>฿159</v>
+        <v>สีทาเล็บลูกแก้ว Kale Plus shinning cateye สีทาเล็บเจล สีลูกแก้ว แมวตา 8ml พร้อมส่ง</v>
       </c>
       <c r="G57" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>฿148</v>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>39</v>
       </c>
       <c r="J57" t="str">
-        <v>ขายแล้ว 29.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K57" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L57" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 19.8พัน ชิ้น</v>
+      </c>
+      <c r="M57" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.18128647861?sp_atk=ee6579bb-3feb-46e3-b08b-adf1fa6d2199&amp;xptdk=ee6579bb-3feb-46e3-b08b-adf1fa6d2199</v>
+        <v>https://shopee.co.th/%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1-3-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-KOTA-COSMETICS-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.59913582.23214646367?sp_atk=311bbd25-21c6-4f55-9918-7d0eee9795a3&amp;xptdk=311bbd25-21c6-4f55-9918-7d0eee9795a3</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/5766a3d7d4256e7ba90041316dae8f83_tn</v>
+        <v/>
       </c>
       <c r="C58" t="str">
-        <v>-40%</v>
+        <v/>
       </c>
       <c r="D58" t="str">
-        <v/>
+        <v>-5%</v>
       </c>
       <c r="E58" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>-</v>
+        <v>ยาย้อม 3 สีใหม่ สีผม KOTA COSMETICS สีย้อมผมออร์แกนิคแท้ 💯%นวัตกรรมใหม่ผลิตจากรากโสมธรรมชาติ</v>
       </c>
       <c r="G58" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H58" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I58" t="str">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J58" t="str">
-        <v>ขายแล้ว 79.2พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K58" t="str">
+        <v>176</v>
+      </c>
+      <c r="L58" t="str">
+        <v>ขายแล้ว 13.7พัน ชิ้น</v>
+      </c>
+      <c r="M58" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="L58" t="str">
-        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/liplover-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-%F0%9F%92%84%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%92%84-i.29272211.20514977653?sp_atk=4572139f-ec1b-4616-9855-c71c829e35be&amp;xptdk=4572139f-ec1b-4616-9855-c71c829e35be</v>
+        <v>https://shopee.co.th/Monochrome-Net-Red-Rouge-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.3049984196?sp_atk=c0c325a5-10d9-43c0-b903-ff1a144ef980&amp;xptdk=c0c325a5-10d9-43c0-b903-ff1a144ef980</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lo4kh5jgijua84_tn</v>
+        <v/>
       </c>
       <c r="C59" t="str">
-        <v>-98%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D59" t="str">
-        <v/>
+        <v>-91%</v>
       </c>
       <c r="E59" t="str">
-        <v>liplover ลิปเลิฟเวอร์  💄พร้อมส่ง💄</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F59" t="str">
-        <v>-</v>
+        <v>Monochrome Net Red Rouge Blush บลัชออน เนื้อแมตต์ สำหรับแต่งหน้า</v>
       </c>
       <c r="G59" t="str">
-        <v>1</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="H59" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I59" t="str">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J59" t="str">
-        <v>ขายแล้ว 31.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K59" t="str">
-        <v>จังหวัดนครศรีธรรมราช</v>
+        <v>15</v>
       </c>
       <c r="L59" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 80.2พัน ชิ้น</v>
+      </c>
+      <c r="M59" t="str">
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3-%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AA-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-i.419966340.8659308980?sp_atk=90610118-234b-43ac-a95d-b18126223739&amp;xptdk=90610118-234b-43ac-a95d-b18126223739</v>
+        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)-%E0%B8%88%E0%B8%B8%E0%B8%AC%E0%B8%B2%E0%B9%80%E0%B8%AE%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%9A-Jula's-Herb-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87-Jula-julahreb-DDcream-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%B3%E0%B9%84%E0%B8%A2-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-C1-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-i.32233698.10829642164?sp_atk=3f7563f5-88d1-4fab-b0d8-0765e674cf54&amp;xptdk=3f7563f5-88d1-4fab-b0d8-0765e674cf54</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-bmpfxalu3amv3a_tn</v>
+        <v/>
       </c>
       <c r="C60" t="str">
-        <v>-80%</v>
+        <v/>
       </c>
       <c r="D60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>ของแท้ 💯 ส่งด่วน | ส่งไว มาส์กหน้าสูตร รวมยอดนิยม สไตล์เกาหลี กระชับผิวหน้า หน้าใส มาร์คหน้าสไตล์ของสาวเกาหลี</v>
+        <v/>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>(หลอด/ยกกล่อง) จุฬาเฮิร์บ Jula's Herb ครีมซอง Jula julahreb DDcream เซรั่มลำไย ดีดีครีม C1 เซรั่มแตงโม ดีดีแตงโม</v>
       </c>
       <c r="G60" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>158</v>
       </c>
       <c r="J60" t="str">
-        <v>ขายแล้ว 746.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K60" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>249</v>
       </c>
       <c r="L60" t="str">
-        <v/>
+        <v>ขายแล้ว 58พัน ชิ้น</v>
+      </c>
+      <c r="M60" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/55-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%97%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B3-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-i.606860656.16047556037?sp_atk=ec892dd7-3cc4-4392-ab70-d9d01e84cfae&amp;xptdk=ec892dd7-3cc4-4392-ab70-d9d01e84cfae</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-42-Colors-Nail-gel-polish-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-UV-LED%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-(%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A)-i.795198852.18345143038?sp_atk=0666f98e-6269-430b-94f7-60278a38d2c8&amp;xptdk=0666f98e-6269-430b-94f7-60278a38d2c8</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7qul7-lk90j9sl3l1l45_tn</v>
+        <v/>
       </c>
       <c r="C61" t="str">
-        <v>-76%</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-45%</v>
       </c>
       <c r="E61" t="str">
-        <v>55# แปรงทารองพื้น สีดำ แบบมีกล่อง แม่ค้าชาวไทย</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v>-</v>
+        <v>สีเจล เจลทาเล็บ สีเจลทาเล็บ 42 Colors Nail gel polish สีสวย UV/LEDสีเจล สีทาเล็บเจล แแบบต้องอบ (ต้องใช้เครื่องอบ)</v>
       </c>
       <c r="G61" t="str">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H61" t="str">
-        <v>฿</v>
+        <v>-</v>
       </c>
       <c r="I61" t="str">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J61" t="str">
-        <v>ขายแล้ว 28.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="K61" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>15</v>
       </c>
       <c r="L61" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ขายแล้ว 84พัน ชิ้น</v>
+      </c>
+      <c r="M61" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/Data_shopee/Data_1_1_2.xlsx
+++ b/Bot/Data_shopee/Data_1_1_2.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:L61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,221 +382,206 @@
         <v>Fd4QmV src</v>
       </c>
       <c r="C1" t="str">
+        <v>customized-overlay-image src</v>
+      </c>
+      <c r="D1" t="str">
+        <v>DgXDzJ</v>
+      </c>
+      <c r="E1" t="str">
+        <v>bPcAVl</v>
+      </c>
+      <c r="F1" t="str">
+        <v>k9JZlv</v>
+      </c>
+      <c r="G1" t="str">
+        <v>bx++ig 2</v>
+      </c>
+      <c r="H1" t="str">
+        <v>k9JZlv 2</v>
+      </c>
+      <c r="I1" t="str">
+        <v>OwmBnn</v>
+      </c>
+      <c r="J1" t="str">
+        <v>JVW3E2</v>
+      </c>
+      <c r="K1" t="str">
         <v>hxLzax</v>
       </c>
-      <c r="D1" t="str">
+      <c r="L1" t="str">
         <v>FTxtVW</v>
-      </c>
-      <c r="E1" t="str">
-        <v>customized-overlay-image src</v>
-      </c>
-      <c r="F1" t="str">
-        <v>DgXDzJ</v>
-      </c>
-      <c r="G1" t="str">
-        <v>I0W76E</v>
-      </c>
-      <c r="H1" t="str">
-        <v>bPcAVl</v>
-      </c>
-      <c r="I1" t="str">
-        <v>k9JZlv</v>
-      </c>
-      <c r="J1" t="str">
-        <v>bx++ig 2</v>
-      </c>
-      <c r="K1" t="str">
-        <v>k9JZlv 2</v>
-      </c>
-      <c r="L1" t="str">
-        <v>OwmBnn</v>
-      </c>
-      <c r="M1" t="str">
-        <v>JVW3E2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-5-%E0%B8%A1%E0%B8%A5.-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-1-2-%E0%B8%A7%E0%B8%B4%E0%B8%99%E0%B8%B2%E0%B8%97%E0%B8%B5-i.509212921.13581177480?sp_atk=8921476d-0f73-4c67-86c0-addca22f04b7&amp;xptdk=8921476d-0f73-4c67-86c0-addca22f04b7</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-Janua-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30ml.-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-i.13357361.11585997871?sp_atk=0d64a96c-81e3-4a2b-9684-2d4f6843af4b&amp;xptdk=0d64a96c-81e3-4a2b-9684-2d4f6843af4b</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/8b22367d786fc45055feec27f1c7da0d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-lff8jiy21jn252_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D2" t="str">
-        <v>-83%</v>
+        <v>น้ำหอมแจนยัวร์ Janua ขนาด 30ml. แพ็คเก็จใหม่ (พร้อมส่ง)</v>
       </c>
       <c r="E2" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-</v>
       </c>
       <c r="F2" t="str">
-        <v>กาวติดขนตาปลอม แห้งเร็ว ขนาด 5 มล. สําหรับต่อขนตา 1-2 วินาที</v>
+        <v>290</v>
       </c>
       <c r="G2" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H2" t="str">
-        <v>-</v>
+        <v>1,250</v>
       </c>
       <c r="I2" t="str">
-        <v>18</v>
+        <v>ขายแล้ว 6.8พัน ชิ้น</v>
       </c>
       <c r="J2" t="str">
-        <v>฿</v>
+        <v>จังหวัดน่าน</v>
       </c>
       <c r="K2" t="str">
-        <v>23</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>ขายแล้ว 52.9พัน ชิ้น</v>
-      </c>
-      <c r="M2" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/%F0%9F%8E%80%F0%9F%8E%80%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%8E%80%F0%9F%8E%80-Mascara-Waterproof-SHEDOES-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%B0-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99-i.271462076.10097638634?sp_atk=08eab60a-81da-43e0-ae7b-0899f6f193af&amp;xptdk=08eab60a-81da-43e0-ae7b-0899f6f193af</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eye-shadow-9-color-i.78064667.4178543666?sp_atk=419bd2fb-2dc6-4e58-8675-dc8aa5d96a2f&amp;xptdk=419bd2fb-2dc6-4e58-8675-dc8aa5d96a2f</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/494ecdcf7fb5d65917d38d96c713e64f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnlef2qzsqxzd2_tn</v>
       </c>
       <c r="C3" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
       </c>
       <c r="D3" t="str">
-        <v>-63%</v>
+        <v>พาเลทอายแชโดว์ 9 สี เนื้อดินน้ำมัน เนื้อใยไหม ประกายชิมเมอร์ Eye shadow 9 color</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F3" t="str">
-        <v>🎀🎀มาใหม่พร้อมส่ง🎀🎀 Mascara Waterproof SHEDOES มาสคาร่าสีดำกันน้ำกันเหงื่อติดทน ไม่เลอะ ไม่เปื้อน</v>
+        <v>9</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H3" t="str">
-        <v>฿39</v>
+        <v>17</v>
       </c>
       <c r="I3" t="str">
-        <v>22</v>
+        <v>ขายแล้ว 55.5พัน ชิ้น</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L3" t="str">
-        <v>ขายแล้ว 62.6พัน ชิ้น</v>
-      </c>
-      <c r="M3" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-83%</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/LANBENA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9A%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81-%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-i.86465195.2428889528?sp_atk=79569bfc-efb2-451f-971b-126914f6dc63&amp;xptdk=79569bfc-efb2-451f-971b-126914f6dc63</v>
+        <v>https://shopee.co.th/Sleepy-Bear-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2%E0%B8%99%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%88%E0%B9%87%E0%B8%9A%E0%B8%AB%E0%B8%B9-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%99-Sleepybear-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9-i.376433227.8011078520?sp_atk=ac959fe2-eedd-43d7-96c5-0c62189682cf&amp;xptdk=ac959fe2-eedd-43d7-96c5-0c62189682cf</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/429ae1bc33940b0cc159fb05f73279e0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lpb9wglthap5b0_tn</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D4" t="str">
-        <v>-87%</v>
+        <v>Sleepy Bear ที่อุดหูเวลานอนดีที่สุด 1 คู่ ลดเสียง นุ่ม ใส่สบาย ไม่เจ็บหู ใช้ซ้ำได้ กันเสียงกรน Sleepybear ซิลิโคนอุดหู</v>
       </c>
       <c r="E4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿89</v>
       </c>
       <c r="F4" t="str">
-        <v>LANBENA ลิปบาล์ม ลิปมาส์ก สารสกัดจากธรรมชาติ บำรุงปากชุ่มชื่น</v>
+        <v>60</v>
       </c>
       <c r="G4" t="str">
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>฿312</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>49</v>
+        <v>ขายแล้ว 80.8พัน ชิ้น</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L4" t="str">
-        <v>ขายแล้ว 8.6พัน ชิ้น</v>
-      </c>
-      <c r="M4" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-33%</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-3D-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2-i.171353391.3008041210?sp_atk=53b6044e-de66-42fa-864a-b3745f917e5f&amp;xptdk=53b6044e-de66-42fa-864a-b3745f917e5f</v>
+        <v>https://shopee.co.th/%F0%9F%92%A6%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%F0%9F%92%A6%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-2%E0%B8%8B%E0%B8%AD%E0%B8%87-i.514272033.11931288473?sp_atk=6de27f18-26f8-4963-997b-3974a1653023&amp;xptdk=6de27f18-26f8-4963-997b-3974a1653023</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ley3zl66k46h7f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/2119a083ee41e24722de38453f86cb4b_tn</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>-90%</v>
+        <v>💦สินค้าขายดี💦สีผม โคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีย้อมผม ขายถูกสุด‼️ ขั้นต่ำ 2ซอง</v>
       </c>
       <c r="E5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-</v>
       </c>
       <c r="F5" t="str">
-        <v>เล็บปลอม 3D สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กา</v>
+        <v>12</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H5" t="str">
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="I5" t="str">
-        <v>4</v>
+        <v>ขายแล้ว 19.1พัน ชิ้น</v>
       </c>
       <c r="J5" t="str">
-        <v>฿</v>
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
       <c r="K5" t="str">
-        <v>16</v>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <v>ขายแล้ว 203.9พัน ชิ้น</v>
-      </c>
-      <c r="M5" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-59%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD1%E0%B9%81%E0%B8%96%E0%B8%A11%E0%B8%9F%E0%B8%A3%E0%B8%B5!!!-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B8%AD%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%A2%E0%B8%84%E0%B9%88%E0%B8%B0%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-COOC-COCOSILIYA-EAU-DE-PARFUM-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%EF%BC%88-50MLX50-i.530657498.14571784074?sp_atk=28705230-c1f1-4ddd-9eb0-ccfb1e638215&amp;xptdk=28705230-c1f1-4ddd-9eb0-ccfb1e638215</v>
+        <v>https://shopee.co.th/YOTAI-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A2%E0%B8%81%E0%B8%82%E0%B8%B2-Karri-30mL-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%81%E0%B8%8B%E0%B8%B5%E0%B9%88-%E0%B8%A2%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A7%E0%B8%99%E0%B8%8A%E0%B8%A7%E0%B8%99%E0%B8%AB%E0%B8%A5%E0%B8%87%E0%B9%84%E0%B8%AB%E0%B8%A5-i.165601508.12037918589?sp_atk=68b163f9-0eeb-4a19-ab73-af1c35918886&amp;xptdk=68b163f9-0eeb-4a19-ab73-af1c35918886</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/84466357f7e162a308345eaed61a3e86_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cad4a060e14aba202d8b33c42b62442d_tn</v>
       </c>
       <c r="C6" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>YOTAI น้ำหอมยกขา Karri 30mL น้ำหอมแท้ น้ำหอม ติดทนนาน กลิ่นหอมเซ็กซี่ ยั่วยวนชวนหลงไหล</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>฿199</v>
       </c>
       <c r="F6" t="str">
-        <v>ซื้อ1แถม1ฟรี!!! สินค้าพร้อมจัดส่ง เพิ่มลงรายการที่ชอบได้เลยค่ะน้ำหอม COOC COCOSILIYA EAU DE PARFUM น้ำหอมแฟชั่น（ 50MLX50</v>
+        <v>32</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -605,65 +590,59 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>36</v>
+        <v>ขายแล้ว 126.9พัน ชิ้น</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K6" t="str">
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>ขายแล้ว 39.5พัน ชิ้น</v>
-      </c>
-      <c r="M6" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-84%</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/Pinkflash-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A7%E0%B8%B1%E0%B8%99-i.320847166.4662106850?sp_atk=f8db7f90-f2ed-4136-b0b8-63d17ef79691&amp;xptdk=f8db7f90-f2ed-4136-b0b8-63d17ef79691</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%95%E0%B9%8C%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-3-%E0%B8%AA%E0%B8%B5-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-i.148820479.21308831375?sp_atk=26db0b33-481c-42af-986c-9de77d3a4f2d&amp;xptdk=26db0b33-481c-42af-986c-9de77d3a4f2d</v>
       </c>
       <c r="B7" t="str">
         <v/>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D7" t="str">
-        <v>-89%</v>
+        <v>พาเลตต์คอนซีลเลอร์ 3 สี คอนทัวร์ คอนทัวร์หน้า ปกปิดรอยคล้ําใต้ตา</v>
       </c>
       <c r="E7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>฿40</v>
       </c>
       <c r="F7" t="str">
-        <v>Pinkflash รองพื้น เนื้อแมตต์ บางเบา ติดทนทานตลอดวัน</v>
+        <v>9</v>
       </c>
       <c r="G7" t="str">
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>฿300</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>32</v>
+        <v>ขายแล้ว 69.2พัน ชิ้น</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L7" t="str">
-        <v>ขายแล้ว 57.5พัน ชิ้น</v>
-      </c>
-      <c r="M7" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-78%</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%A6%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%F0%9F%92%A6%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-2%E0%B8%8B%E0%B8%AD%E0%B8%87-i.514272033.11931288473?sp_atk=973fd84c-016b-4f63-8222-0bde54662df9&amp;xptdk=973fd84c-016b-4f63-8222-0bde54662df9</v>
+        <v>https://shopee.co.th/%E2%9A%A1%EF%B8%8F12.12%E2%9A%A1%EF%B8%8F%F0%9F%90%9A%F0%9F%A7%BC%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B8%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B8%9A-FreshMe%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-i.501255383.14910745528?sp_atk=b1e9d34c-f48b-486f-b909-743a7055665a&amp;xptdk=b1e9d34c-f48b-486f-b909-743a7055665a</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -672,80 +651,74 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>-59%</v>
+        <v>⚡️12.12⚡️🐚🧼ไม่ระบุสินค้า ของแทบ#FreshMeน้ำยาล้าง หอมละมุน</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F8" t="str">
-        <v>💦สินค้าขายดี💦สีผม โคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีย้อมผม ขายถูกสุด‼️ ขั้นต่ำ 2ซอง</v>
+        <v>59</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H8" t="str">
-        <v>-</v>
+        <v>199</v>
       </c>
       <c r="I8" t="str">
-        <v>12</v>
+        <v>ขายแล้ว 26.4พัน ชิ้น</v>
       </c>
       <c r="J8" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K8" t="str">
-        <v>60</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>ขายแล้ว 19.1พัน ชิ้น</v>
-      </c>
-      <c r="M8" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%F0%9F%8C%9F%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1%E0%B9%83%E0%B8%99%E0%B8%9B%E0%B8%B5-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.446794000.15120056341?sp_atk=e2fd0d45-b827-4204-9b17-45ee88f1f6f0&amp;xptdk=e2fd0d45-b827-4204-9b17-45ee88f1f6f0</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%EF%BC%881-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%EF%BC%89%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B8%A5%E0%B8%94%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9B%E0%B8%A7%E0%B8%94%E0%B8%95%E0%B8%B2-i.299697925.18519773356?sp_atk=49b74d51-0472-45bf-8a03-bd5ca59d5a39&amp;xptdk=49b74d51-0472-45bf-8a03-bd5ca59d5a39</v>
       </c>
       <c r="B9" t="str">
         <v/>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D9" t="str">
-        <v>-78%</v>
+        <v>แผ่นประคบตา มาส์กตาอุ่น ผ้าปิดตา（1 แผ่น ）ที่ปิดตา ประคบร้อนที่ดวงตา ลดอาการปวดตา</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F9" t="str">
-        <v>ส่งเร็ว🌟สีทาเล็บ  สีทาเล็บ  สีทาเล็บเจล ยาทาเล็บลอกได้ กลิ่นหอมไม่ต้องอบ สียอดนิยมในปี  ไม่ต้องอบ ปกป้องเล็บ ยาทาเล็บ</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H9" t="str">
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="I9" t="str">
-        <v>13</v>
+        <v>ขายแล้ว 201.9พัน ชิ้น</v>
       </c>
       <c r="J9" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K9" t="str">
-        <v>17</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L9" t="str">
-        <v>ขายแล้ว 45พัน ชิ้น</v>
-      </c>
-      <c r="M9" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>-88%</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%E2%9A%A1%EF%B8%8F12.12%E2%9A%A1%EF%B8%8F%F0%9F%90%9A%F0%9F%A7%BC%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B8%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B8%9A-FreshMe%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-i.501255383.14910745528?sp_atk=2933867b-2c4d-44c5-aaf3-6d3f2c35fd7f&amp;xptdk=2933867b-2c4d-44c5-aaf3-6d3f2c35fd7f</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%A1.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-35-ML.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%89-i.52708754.7111781106?sp_atk=d94bd15b-135d-4255-b85b-4716639fb55c&amp;xptdk=d94bd15b-135d-4255-b85b-4716639fb55c</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -754,546 +727,507 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>น้ำหอมมาดามฟิน หอมติดทนนาน 12 ชม. ขนาด 35 ML. กลิ่นเทียบแท้</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F10" t="str">
-        <v>⚡️12.12⚡️🐚🧼ไม่ระบุสินค้า ของแทบ#FreshMeน้ำยาล้าง หอมละมุน</v>
+        <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H10" t="str">
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="I10" t="str">
-        <v>59</v>
+        <v>ขายแล้ว 114.5พัน ชิ้น</v>
       </c>
       <c r="J10" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K10" t="str">
-        <v>199</v>
+        <v/>
       </c>
       <c r="L10" t="str">
-        <v>ขายแล้ว 26.4พัน ชิ้น</v>
-      </c>
-      <c r="M10" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-98%</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/ODBO-SIGNATURE-EYESHADOW-PALETTE-OD276%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-6-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.97338386.21306930595?sp_atk=4c6c4d15-f5b0-487f-a141-d671f2acb15e&amp;xptdk=4c6c4d15-f5b0-487f-a141-d671f2acb15e</v>
+        <v>https://shopee.co.th/S-09%F0%9F%8C%9FXixi-Eye-Shadow-Pen-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%97%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%95%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%94%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%89-i.250814349.13419007708?sp_atk=3ff14b98-b83d-4277-b428-d50c31de4a1e&amp;xptdk=3ff14b98-b83d-4277-b428-d50c31de4a1e</v>
       </c>
       <c r="B11" t="str">
         <v/>
       </c>
       <c r="C11" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>S-09🌟Xixi Eye Shadow Pen อายแชโดว์+อินไลเนอร์แบบแท่ง ไฮไลท์ อายแชโดว์ทาหัวตา สีวาว เขียนใต้ตาเป็นดอลลี่อาย ติดทน กันนำ้</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F11" t="str">
-        <v>ODBO SIGNATURE EYESHADOW PALETTE OD276โอดีบีโอ อายแชโดว์ ซิกเนเจอร์ พาเลท 6 สี เม็ดสีแแน่น ติดทนนาน</v>
+        <v>29</v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H11" t="str">
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="I11" t="str">
-        <v>82</v>
+        <v>ขายแล้ว 31.7พัน ชิ้น</v>
       </c>
       <c r="J11" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K11" t="str">
-        <v>115</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L11" t="str">
-        <v>ขายแล้ว 20.9พัน ชิ้น</v>
-      </c>
-      <c r="M11" t="str">
-        <v>จังหวัดสุรินทร์</v>
+        <v>-51%</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-(%E0%B9%84%E0%B8%9F%E0%B8%99%E0%B8%AD%E0%B8%A5-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81)-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%AB%E0%B8%A1%E0%B8%AD-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%9A%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%B4-i.83719543.15050896711?sp_atk=20241f7c-fcf0-449f-8ecc-9d1053e696c7&amp;xptdk=20241f7c-fcf0-449f-8ecc-9d1053e696c7</v>
+        <v>https://shopee.co.th/Maange-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%96%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-9-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.242872583.5078863006?sp_atk=0555fcc1-ad82-48e6-bc14-93977ee4e0e9&amp;xptdk=0555fcc1-ad82-48e6-bc14-93977ee4e0e9</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lhh4egxd1nz7ad_tn</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D12" t="str">
-        <v>-42%</v>
+        <v>Maange ชุดแปรงแต่งหน้า ด้ามจับขนแปรงนุ่ม พร้อมถังแปรง 9 ชิ้น</v>
       </c>
       <c r="E12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>-</v>
       </c>
       <c r="F12" t="str">
-        <v>BANOBAGI Final Sleeping Mask (ไฟนอล สลีปปิ้ง มาส์ก) #สลีปปิ้งมาสก์คุณหมอ #สลีปปิ้งมาร์คบาโนบากิ</v>
+        <v>82</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H12" t="str">
-        <v>฿88</v>
+        <v>99</v>
       </c>
       <c r="I12" t="str">
-        <v>51</v>
+        <v>ขายแล้ว 44.1พัน ชิ้น</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>ขายแล้ว 280พัน ชิ้น</v>
-      </c>
-      <c r="M12" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-66%</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/OYAFUN-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.479652726.12164223229?sp_atk=c2fda1ad-f0a5-40e5-a2b6-61ea4e886f36&amp;xptdk=c2fda1ad-f0a5-40e5-a2b6-61ea4e886f36</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%84%E0%B8%A3%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A2%E0%B8%B8%E0%B9%88%E0%B8%87-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9F%E0%B8%B9-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%83%E0%B8%AA-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%A7(442)-i.399297978.19811956612?sp_atk=59d1f813-2812-429a-8bee-498d79d17feb&amp;xptdk=59d1f813-2812-429a-8bee-498d79d17feb</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/1847b5f4cd44b076d287a607b009019d_tn</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D13" t="str">
-        <v>-69%</v>
+        <v>มาสคาร่าเก็บไรผม มาสคาร่าเก็บลูกผม เก็บลูกผม ผมไม่ยุ่ง แก้ปัญหาหัวฟู เจลใส ไม่เหนียว(442)</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>฿39</v>
       </c>
       <c r="F13" t="str">
-        <v>OYAFUN สีทาเล็บ ยาทาเล็บ สีทาเล็บลอกได้ กลิ่นหอม สีทาเล็บเจลไม่ต้องอบ  แห้งเร็ว ปกป้องเล็บ</v>
+        <v>1</v>
       </c>
       <c r="G13" t="str">
         <v/>
       </c>
       <c r="H13" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>15</v>
+        <v>ขายแล้ว 55.8พัน ชิ้น</v>
       </c>
       <c r="J13" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K13" t="str">
-        <v>16</v>
+        <v/>
       </c>
       <c r="L13" t="str">
-        <v>ขายแล้ว 163.4พัน ชิ้น</v>
-      </c>
-      <c r="M13" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-97%</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%F0%9F%98%8A-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-i.255138429.18648610935?sp_atk=3780a192-4828-4d17-9b79-2535d2057b61&amp;xptdk=3780a192-4828-4d17-9b79-2535d2057b61</v>
+        <v>https://shopee.co.th/-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-Bond-Wash-10-ml.-45-ml.-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-i.12332987.1160111243?sp_atk=482fed16-3c41-4ae7-9fc2-5c4b16f454f5&amp;xptdk=482fed16-3c41-4ae7-9fc2-5c4b16f454f5</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/5dc1d329f17be42a1bc90df2afbca0b6_tn</v>
+        <v/>
       </c>
       <c r="C14" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>-68%</v>
+        <v>[เจลล้างน้องชาย] สูตรอุ่น/เย็น/อ่อนโยน Bond Wash 10 ml. / 45 ml. เจลล้างจุดซ่อนเร้นสำหรับผู้ชาย</v>
       </c>
       <c r="E14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F14" t="str">
-        <v>ที่ล้างแปรงแต่งหน้า 😊 แผ่นซิลิโคน อ่างซิลิโคนล้างแปรง น้ำยาล้างแปรง</v>
+        <v>22</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H14" t="str">
-        <v>-</v>
+        <v>85</v>
       </c>
       <c r="I14" t="str">
-        <v>25</v>
+        <v>ขายแล้ว 44.8พัน ชิ้น</v>
       </c>
       <c r="J14" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K14" t="str">
-        <v>108</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L14" t="str">
-        <v>ขายแล้ว 22.8พัน ชิ้น</v>
-      </c>
-      <c r="M14" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/Abpopa-DAIMANPU%C2%AE-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.93231183.21544411741?sp_atk=48c387d1-c44a-4053-92e3-2abf5ab98b6e&amp;xptdk=48c387d1-c44a-4053-92e3-2abf5ab98b6e</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%9E-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A724%E0%B8%8A%E0%B8%A1-Pinkyfocus-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.851310463.21349699123?sp_atk=52f79883-64b0-401b-a537-93b0f9ae1efe&amp;xptdk=52f79883-64b0-401b-a537-93b0f9ae1efe</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loay7nqcvrnr4a_tn</v>
+        <v/>
       </c>
       <c r="C15" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D15" t="str">
-        <v>-67%</v>
+        <v>กรุงเทพ ส่งไว24ชม Pinkyfocus ลิปสติกโคลน เคลือบริมฝีปาก ติดทนนาน ไม่ซีดจาง สําหรับผู้หญิง</v>
       </c>
       <c r="E15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿80</v>
       </c>
       <c r="F15" t="str">
-        <v>Abpopa DAIMANPU® ลิปสติก เนื้อแมตต์ เจลลี่ เคลือบเงา ติดทนนาน</v>
+        <v>28</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v>27</v>
+        <v>ขายแล้ว 13.4พัน ชิ้น</v>
       </c>
       <c r="J15" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K15" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="L15" t="str">
-        <v>ขายแล้ว 21.5พัน ชิ้น</v>
-      </c>
-      <c r="M15" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-65%</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/Banana-Boat-Aqua-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%82%E0%B8%9A%E0%B9%89%E0%B8%97.-i.70998059.9245467680?sp_atk=1a7717d5-68d4-413b-a166-cca4ae59f612&amp;xptdk=1a7717d5-68d4-413b-a166-cca4ae59f612</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%841-%E0%B9%81%E0%B8%A5%E0%B8%B0-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%89%E0%B8%B2-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%9E%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B8%B5%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%99-i.267190587.10487214152?sp_atk=7d788c0c-17d2-4f71-98fc-e4b92b273d79&amp;xptdk=7d788c0c-17d2-4f71-98fc-e4b92b273d79</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D16" t="str">
-        <v>-90%</v>
+        <v>กิ๊บยกโคนผม กิ๊บม้วนผม แพ็ค1 และ 2 ชิ้น โรลยกโคนผม ม้วนผมหน้าม้า โรลเพิ่มวอลลุ่ม ช่วยยกโคนให้ผมดูหนา พองสวย ผมไม่ลีบแบน</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F16" t="str">
-        <v>Banana Boat Aqua กันแดดบานาน่า โบ้ท.</v>
+        <v>7</v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H16" t="str">
-        <v>฿435</v>
+        <v>18</v>
       </c>
       <c r="I16" t="str">
-        <v>42</v>
+        <v>ขายแล้ว 43.1พัน ชิ้น</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L16" t="str">
-        <v>ขายแล้ว 74.8พัน ชิ้น</v>
-      </c>
-      <c r="M16" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-50%</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.514003823.21869765786?sp_atk=8badce6f-45ec-401f-88e1-fc180f59aa7d&amp;xptdk=8badce6f-45ec-401f-88e1-fc180f59aa7d</v>
+        <v>https://shopee.co.th/-1%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-D.Dent-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%94%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A39%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94-%E0%B8%A1%E0%B8%B5%E0%B8%9F%E0%B8%A5%E0%B8%B9%E0%B8%AD%E0%B8%AD%E0%B9%84%E0%B8%A3%E0%B8%94%E0%B9%8C-1500ppm.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-g.-i.298976044.18365491193?sp_atk=ad513fd5-e0c2-4c13-8d2f-a316741e3913&amp;xptdk=ad513fd5-e0c2-4c13-8d2f-a316741e3913</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-gbtnjtf8ajlv6b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-icx43an9rfkv61_tn</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D17" t="str">
-        <v>-83%</v>
+        <v>[1หลอด] D.Dent ยาสีฟันดีเด้นท์ ยาสีฟันสมุนไพร9ชนิด มีฟลูออไรด์ 1500ppm. ขนาด 100 g.</v>
       </c>
       <c r="E17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>฿59</v>
       </c>
       <c r="F17" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v>1</v>
       </c>
       <c r="G17" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 42.9พัน ชิ้น</v>
       </c>
       <c r="J17" t="str">
-        <v>฿</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K17" t="str">
-        <v>12</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L17" t="str">
-        <v>ขายแล้ว 84.4พัน ชิ้น</v>
-      </c>
-      <c r="M17" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-98%</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-CB-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.431683584.9776438013?sp_atk=0dadef2b-50cd-4062-86b8-7e295266bf43&amp;xptdk=0dadef2b-50cd-4062-86b8-7e295266bf43</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%F0%9F%8C%9F%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1%E0%B9%83%E0%B8%99%E0%B8%9B%E0%B8%B5-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.446794000.15120056341?sp_atk=5a0c8890-d887-4c3e-829f-1f2d7f218e76&amp;xptdk=5a0c8890-d887-4c3e-829f-1f2d7f218e76</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/f2e0a118819e642dec188df1df7019db_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ea71979708931b8814485463530881f9_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>-38%</v>
+        <v>ส่งเร็ว🌟สีทาเล็บ  สีทาเล็บ  สีทาเล็บเจล ยาทาเล็บลอกได้ กลิ่นหอมไม่ต้องอบ สียอดนิยมในปี  ไม่ต้องอบ ปกป้องเล็บ ยาทาเล็บ</v>
       </c>
       <c r="E18" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-</v>
       </c>
       <c r="F18" t="str">
-        <v>เครื่องม้วนผม CB ที่ม้วนผม ที่ลอนผม แกนม้วนผม เครื่องหนีบผม เครื่องลอนผม แบบเปียกและแบบแห้ง ที่หนีบผม</v>
+        <v>13</v>
       </c>
       <c r="G18" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H18" t="str">
-        <v>-</v>
+        <v>17</v>
       </c>
       <c r="I18" t="str">
-        <v>80</v>
+        <v>ขายแล้ว 45.1พัน ชิ้น</v>
       </c>
       <c r="J18" t="str">
-        <v>฿</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K18" t="str">
-        <v>95</v>
+        <v/>
       </c>
       <c r="L18" t="str">
-        <v>ขายแล้ว 52.6พัน ชิ้น</v>
-      </c>
-      <c r="M18" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-78%</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/S-09%F0%9F%8C%9FXixi-Eye-Shadow-Pen-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%97%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%95%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%94%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%89-i.250814349.13419007708?sp_atk=016ceb87-b00b-4b39-b6b5-519da4887aa1&amp;xptdk=016ceb87-b00b-4b39-b6b5-519da4887aa1</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-liplover-%E2%9D%97%E2%9D%97%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9D%97%E2%9D%97-i.29272211.8504953889?sp_atk=d5162987-716b-4ff7-8928-afdd40899464&amp;xptdk=d5162987-716b-4ff7-8928-afdd40899464</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/b60e2b4e91e3929be089346ec4bd17cc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lljcon4d5dxa17_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>-51%</v>
+        <v>ลิปเลิฟเวอร์ liplover  ❗❗ล็อตล่าสุด พร้อมส่งครบสี❗❗</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F19" t="str">
-        <v>S-09🌟Xixi Eye Shadow Pen อายแชโดว์+อินไลเนอร์แบบแท่ง ไฮไลท์ อายแชโดว์ทาหัวตา สีวาว เขียนใต้ตาเป็นดอลลี่อาย ติดทน กันนำ้</v>
+        <v>1</v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H19" t="str">
-        <v>-</v>
+        <v>38</v>
       </c>
       <c r="I19" t="str">
-        <v>29</v>
+        <v>ขายแล้ว 147.8พัน ชิ้น</v>
       </c>
       <c r="J19" t="str">
-        <v>฿</v>
+        <v>จังหวัดนครศรีธรรมราช</v>
       </c>
       <c r="K19" t="str">
-        <v>32</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L19" t="str">
-        <v>ขายแล้ว 31.7พัน ชิ้น</v>
-      </c>
-      <c r="M19" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-98%</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B9%81%E0%B8%A5%E0%B8%B0-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B7%E0%B9%8A%E0%B8%81%E0%B8%AA%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9C%E0%B8%A5%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-3-2.4-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.18062071.176305290?sp_atk=81f97a93-d950-4d1d-9045-2d7a8964cf76&amp;xptdk=81f97a93-d950-4d1d-9045-2d7a8964cf76</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-5-%E0%B8%A1%E0%B8%A5.-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-1-2-%E0%B8%A7%E0%B8%B4%E0%B8%99%E0%B8%B2%E0%B8%97%E0%B8%B5-i.509212921.13581177480?sp_atk=dbb48c9f-bbf0-4205-8be1-0ef1f9182c97&amp;xptdk=dbb48c9f-bbf0-4205-8be1-0ef1f9182c97</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkxpyb5rlywc22_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8b22367d786fc45055feec27f1c7da0d_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D20" t="str">
-        <v>-50%</v>
+        <v>กาวติดขนตาปลอม แห้งเร็ว ขนาด 5 มล. สําหรับต่อขนตา 1-2 วินาที</v>
       </c>
       <c r="E20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-</v>
       </c>
       <c r="F20" t="str">
-        <v>สีผึ้งแม่เลียบ แบบตลับ และ ลิปสตื๊กสผึ้งแม่เลียบ ลิปมัน ที่ช่วยผลัดเซลผิวปากที่คล้ำให้เปลี่ยนเป็นสีชมพู ขนาด 3,2.4 กรัม</v>
+        <v>18</v>
       </c>
       <c r="G20" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H20" t="str">
-        <v>-</v>
+        <v>23</v>
       </c>
       <c r="I20" t="str">
-        <v>9</v>
+        <v>ขายแล้ว 53.4พัน ชิ้น</v>
       </c>
       <c r="J20" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K20" t="str">
-        <v>59</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L20" t="str">
-        <v>ขายแล้ว 58พัน ชิ้น</v>
-      </c>
-      <c r="M20" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-83%</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5Two-moons-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9410ml*1-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-TM2-i.127727510.15448999739?sp_atk=7d957b80-030b-4553-8682-09bf5cebfd9c&amp;xptdk=7d957b80-030b-4553-8682-09bf5cebfd9c</v>
+        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-(%E0%B9%84%E0%B8%9F%E0%B8%99%E0%B8%AD%E0%B8%A5-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81)-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%AB%E0%B8%A1%E0%B8%AD-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%9A%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%B4-i.83719543.15050896711?sp_atk=8fcf0571-0aee-442e-ad48-aed113a50fa0&amp;xptdk=8fcf0571-0aee-442e-ad48-aed113a50fa0</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/db2674179eaf91efe20f931ecb4563cf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lhh4egxd1nz7ad_tn</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="D21" t="str">
-        <v>-57%</v>
+        <v>BANOBAGI Final Sleeping Mask (ไฟนอล สลีปปิ้ง มาส์ก) #สลีปปิ้งมาสก์คุณหมอ #สลีปปิ้งมาร์คบาโนบากิ</v>
       </c>
       <c r="E21" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿88</v>
       </c>
       <c r="F21" t="str">
-        <v>🔥พร้อมส่ง🔥Two-moons ของแท้ ยาทาเล็บ สีทาเล็บ กลิตเตอร์ กึ่งเจล ขนาด10ml*1 ไม่ต้องอบ สีสวย แห้งไว รุ่นใหม่ TM2</v>
+        <v>51</v>
       </c>
       <c r="G21" t="str">
         <v/>
       </c>
       <c r="H21" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>19</v>
+        <v>ขายแล้ว 280.1พัน ชิ้น</v>
       </c>
       <c r="J21" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K21" t="str">
-        <v>88</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L21" t="str">
-        <v>ขายแล้ว 36.1พัน ชิ้น</v>
-      </c>
-      <c r="M21" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-42%</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/Maange-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%96%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-9-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.242872583.5078863006?sp_atk=5ee2adc2-50b9-4553-9023-fd80d3346b13&amp;xptdk=5ee2adc2-50b9-4553-9023-fd80d3346b13</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5SALE%F0%9F%92%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%A5%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-i.177254002.4204976287?sp_atk=eac8b681-ea76-4d5e-a3c9-738ae812ee53&amp;xptdk=eac8b681-ea76-4d5e-a3c9-738ae812ee53</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/2b7e7ec488ce3d178a3963a9c4d2fac7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5fac3b3182eaa8b6e436adbeb5990c8e_tn</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D22" t="str">
-        <v>-66%</v>
+        <v>💥SALE💥ครีมทามือสูตรยอดนิยม 30 กรัม เพิ่มความชุ่มชื้น ผิวมือเนียนนุ่มชุ่มชื้น กลิ่นหอม ราคาลดพิเศษ</v>
       </c>
       <c r="E22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v>Maange ชุดแปรงแต่งหน้า ด้ามจับขนแปรงนุ่ม พร้อมถังแปรง 9 ชิ้น</v>
+        <v>5</v>
       </c>
       <c r="G22" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I22" t="str">
-        <v>82</v>
+        <v>ขายแล้ว 304.1พัน ชิ้น</v>
       </c>
       <c r="J22" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K22" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="L22" t="str">
-        <v>ขายแล้ว 44.1พัน ชิ้น</v>
-      </c>
-      <c r="M22" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-75%</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/DKL901(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%81-Eye-shadow-9-colors-dikalu-i.25539018.9738907303?sp_atk=577df460-a114-4d94-9139-34c4a279c4ab&amp;xptdk=577df460-a114-4d94-9139-34c4a279c4ab</v>
+        <v>https://shopee.co.th/Pinkflash-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A7%E0%B8%B1%E0%B8%99-i.320847166.4662106850?sp_atk=7682acfa-18f7-4c33-b489-dad833f33c49&amp;xptdk=7682acfa-18f7-4c33-b489-dad833f33c49</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/0d1cf655be716c7509c00871f594663f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lo4ugkkbpbfn4f_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Pinkflash รองพื้น เนื้อแมตต์ บางเบา ติดทนทานตลอดวัน</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>฿300</v>
       </c>
       <c r="F23" t="str">
-        <v>DKL901(ใหม่/แท้) พาเลทอายแชโดว์ 9 สี แมท เนื้อใยไหม ประกายชิมเมอร์ สีสวยมาก Eye shadow 9 colors dikalu</v>
+        <v>32</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -1302,39 +1236,36 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <v>23</v>
+        <v>ขายแล้ว 57.5พัน ชิ้น</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K23" t="str">
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>ขายแล้ว 51.5พัน ชิ้น</v>
-      </c>
-      <c r="M23" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-89%</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B8%AA%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-18%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3-Innisfree-My-Real-Squeeze-Mask-20ml-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA-i.219286622.9257869455?sp_atk=4f829f4f-78af-471b-af8f-d2b4377ac8fa&amp;xptdk=4f829f4f-78af-471b-af8f-d2b4377ac8fa</v>
+        <v>https://shopee.co.th/kingshopping-%EF%BC%88%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-IR679-i.162894152.11543889282?sp_atk=fe031b43-16d7-40a0-a0c8-19ebb12c88b3&amp;xptdk=fe031b43-16d7-40a0-a0c8-19ebb12c88b3</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/ee48e73a3a4b98ba9dff014fc15c3dcc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lhws6xjrmvir58_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>kingshopping （ร้านไทย)  2แผ่น/ซอง แผ่นแปะผม ที่แปะผม แผ่นติดผมแต่งหน้า แผ่นติดผม แผ่นเก็บผม IR679</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>฿3</v>
       </c>
       <c r="F24" t="str">
-        <v>อินนิสฟรี มาส์กหน้า 18สูตร Innisfree My Real Squeeze Mask 20ml แผ่นมาส์กหน้า มาร์คหน้า มาร์กหน้า แผ่นมาร์ส</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -1343,1187 +1274,1100 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <v>18</v>
+        <v>ขายแล้ว 276.4พัน ชิ้น</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L24" t="str">
-        <v>ขายแล้ว 409.8พัน ชิ้น</v>
-      </c>
-      <c r="M24" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-67%</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99-CS-Series-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B9%84%E0%B8%A5%E0%B9%88%E0%B9%82%E0%B8%97%E0%B8%99%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A9-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%89%E0%B8%B5%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-14-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B8%E0%B8%94-i.149829268.15643487810?sp_atk=655f268e-2a7b-4e53-b2bc-70abccebb4a5&amp;xptdk=655f268e-2a7b-4e53-b2bc-70abccebb4a5</v>
+        <v>https://shopee.co.th/-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-MizuMi-UV-Bright-Body-Serum-(180-ml)-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%81%E0%B8%94%E0%B8%94%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%A5%E0%B8%A0%E0%B8%B2%E0%B8%A7%E0%B8%B0-i.70802054.17665872094?sp_atk=de11da3d-fa1e-42f2-a0d4-fa0a819894bd&amp;xptdk=de11da3d-fa1e-42f2-a0d4-fa0a819894bd</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/97a3d7d2185116120cbc4aaebd7c5975_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-llpqt9tj2cjr5b_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>-14%</v>
+        <v>[แพ็คคู่] MizuMi UV Bright Body Serum (180 ml) เซรั่มกันแดดทาผิวกาย เบาสบายผิว หอมละมุน ปกป้องผิวจากแดดและมลภาวะ</v>
       </c>
       <c r="E25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿780</v>
       </c>
       <c r="F25" t="str">
-        <v>สติกเกอร์ติดเล็บ ลายการ์ตูน CS Series น่ารัก ไล่โทนสี กันน้ำ ปลอดสารพิษ แบบฉีกได้ ทนทาน สําหรับตกแต่งเล็บ DIY 14 ชิ้น ต่อชุด</v>
+        <v>369</v>
       </c>
       <c r="G25" t="str">
         <v/>
       </c>
       <c r="H25" t="str">
-        <v>฿14</v>
+        <v/>
       </c>
       <c r="I25" t="str">
-        <v>12</v>
+        <v>ขายแล้ว 46.2พัน ชิ้น</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>ขายแล้ว 56.5พัน ชิ้น</v>
-      </c>
-      <c r="M25" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-53%</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-Bond-Wash-10-ml.-45-ml.-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-i.12332987.1160111243?sp_atk=ac357003-77b2-4c49-9c60-b963839f18c1&amp;xptdk=ac357003-77b2-4c49-9c60-b963839f18c1</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.656187828.17856786016?sp_atk=725ded05-6950-4b8a-bfdc-0bb6443ed7fa&amp;xptdk=725ded05-6950-4b8a-bfdc-0bb6443ed7fa</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7quky-lfgmm7jc4pta8b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-ljz67566zkuh9a_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F26" t="str">
-        <v>[เจลล้างน้องชาย] สูตรอุ่น/เย็น/อ่อนโยน Bond Wash 10 ml. / 45 ml. เจลล้างจุดซ่อนเร้นสำหรับผู้ชาย</v>
+        <v>3</v>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H26" t="str">
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="I26" t="str">
-        <v>22</v>
+        <v>ขายแล้ว 90.5พัน ชิ้น</v>
       </c>
       <c r="J26" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K26" t="str">
-        <v>85</v>
+        <v/>
       </c>
       <c r="L26" t="str">
-        <v>ขายแล้ว 44.8พัน ชิ้น</v>
-      </c>
-      <c r="M26" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-85%</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B8%AD%E0%B8%AD%E0%B9%82%E0%B8%95%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B9%87%E0%B8%AD%E0%B8%81--i.606860656.17100035386?sp_atk=37e9c5de-0ffc-4de6-9498-5d5ec3b30a21&amp;xptdk=37e9c5de-0ffc-4de6-9498-5d5ec3b30a21</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.289949150.9157376486?sp_atk=26a309e1-b8f3-483c-90f7-03c4bc4f6a02&amp;xptdk=26a309e1-b8f3-483c-90f7-03c4bc4f6a02</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7quky-lk92m6g4u0sb19_tn</v>
+        <v>https://down-th.img.susercontent.com/file/51303274fb37200f314bde8eb7cf1aad_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D27" t="str">
-        <v>-97%</v>
+        <v>มาสคาร่าขนาดเล็ก หัวแปรงโค้งยาว กันน้ำและกันเหงื่อ ไม่เลอะ สําหรับผู้เริ่มต้นปัดขนตา</v>
       </c>
       <c r="E27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>฿58</v>
       </c>
       <c r="F27" t="str">
-        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง แบบหมุนออโต้ กันน้ำ พร้อมแปรง ติดทนนาน 1 ชิ้น [ผู้ขายชาวไทย พร้อมสต็อก]</v>
+        <v>10</v>
       </c>
       <c r="G27" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 147.8พัน ชิ้น</v>
       </c>
       <c r="J27" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K27" t="str">
-        <v>11</v>
+        <v/>
       </c>
       <c r="L27" t="str">
-        <v>ขายแล้ว 172.8พัน ชิ้น</v>
-      </c>
-      <c r="M27" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>-83%</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88-BESTJ006-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-15-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3%F0%9F%94%A5(F-009)%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%9A%9A%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.190438850.3623855081?sp_atk=1b4ffb4a-3359-4f68-9c94-6e5142dc7d32&amp;xptdk=1b4ffb4a-3359-4f68-9c94-6e5142dc7d32</v>
+        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%9A%E0%B8%B8%E0%B8%81%E0%B8%B4-13-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-i.281190147.19018499293?sp_atk=7cb89558-4537-4598-ab82-923b5658765a&amp;xptdk=7cb89558-4537-4598-ab82-923b5658765a</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/7d90710e59ccea8c12c5e7193a9c6fa0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lmzm52chtuvx9b_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D28" t="str">
-        <v>-83%</v>
+        <v>ชุดแปรงแต่งหน้าคาบุกิ 13 ชิ้น รองพื้น อายแชโดว์ บลัชออน</v>
       </c>
       <c r="E28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-</v>
       </c>
       <c r="F28" t="str">
-        <v>🔥ใส่ BESTJ006 ลดเพิ่ม 15% ไม่มีขั้นต่ำ🔥(F-009)ส่งเร็วจากไทย🚚ค่าส่งถูกสุด 2แผ่น/ซองแผ่นแปะผม แผ่นติดผมแต่งหน้า แผ่นเก็บผม</v>
+        <v>10</v>
       </c>
       <c r="G28" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H28" t="str">
-        <v>฿6</v>
+        <v>49</v>
       </c>
       <c r="I28" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 58.6พัน ชิ้น</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L28" t="str">
-        <v>ขายแล้ว 2.3ล้าน ชิ้น</v>
-      </c>
-      <c r="M28" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>-68%</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%96%E0%B8%AD%E0%B8%94%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.13941876990?sp_atk=a8449efa-0b58-4477-a945-aa253614e6cc&amp;xptdk=a8449efa-0b58-4477-a945-aa253614e6cc</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%9F%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%8B%E0%B8%B5-35%E0%B8%97l.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%84%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C-i.52708754.13254092783?sp_atk=4bc16d7b-a4bb-4253-9dff-da2ffe6ff6e9&amp;xptdk=4bc16d7b-a4bb-4253-9dff-da2ffe6ff6e9</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lq26f02kvghhaf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b401ff96fe19821db42f7182c4a03eba_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>-90%</v>
+        <v>น้ำหอมมิดไนท์แฟนตาซี 35ทl. กลิ่นเทียบเคียงแบรนด์</v>
       </c>
       <c r="E29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F29" t="str">
-        <v>เล็บปลอม พร้อมกาว กันน้ํา แบบถอดออกได้ จํานวน 24 ชิ้น</v>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H29" t="str">
-        <v>฿100</v>
+        <v>36</v>
       </c>
       <c r="I29" t="str">
-        <v>10</v>
+        <v>ขายแล้ว 31.8พัน ชิ้น</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K29" t="str">
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>ขายแล้ว 97.1พัน ชิ้น</v>
-      </c>
-      <c r="M29" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-99%</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%A5-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%AA%E0%B8%B8%E0%B8%94-%F0%9F%92%A5-Mizumi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Mistine-%E0%B8%A1%E0%B8%B4%E0%B8%AA%E0%B8%97%E0%B8%B5%E0%B8%99-NIVEA-%E0%B8%99%E0%B8%B5%E0%B9%80%E0%B8%A7%E0%B8%B5%E0%B8%A2-Johnson-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.47072761.19940999181?sp_atk=f27a30b0-aa19-4065-8d3f-f49aa138c830&amp;xptdk=f27a30b0-aa19-4065-8d3f-f49aa138c830</v>
+        <v>https://shopee.co.th/OYAFUN-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.479652726.12164223229?sp_atk=914a6a17-fdc7-4328-8639-747ec65d9422&amp;xptdk=914a6a17-fdc7-4328-8639-747ec65d9422</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lob1sbksqjn4b4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1847b5f4cd44b076d287a607b009019d_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D30" t="str">
-        <v>-64%</v>
+        <v>OYAFUN สีทาเล็บ ยาทาเล็บ สีทาเล็บลอกได้ กลิ่นหอม สีทาเล็บเจลไม่ต้องอบ  แห้งเร็ว ปกป้องเล็บ</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F30" t="str">
-        <v>💥 โลชั่น สุดฮิตขายดีสุด 💥 Mizumi มิซึมิ , Mistine มิสทีน , NIVEA นีเวีย , Johnson เซรั่มบำรุงผิวกาย กันแดด ครีมทาผิว</v>
+        <v>15</v>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H30" t="str">
-        <v>-</v>
+        <v>16</v>
       </c>
       <c r="I30" t="str">
-        <v>115</v>
+        <v>ขายแล้ว 163.4พัน ชิ้น</v>
       </c>
       <c r="J30" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K30" t="str">
-        <v>179</v>
+        <v/>
       </c>
       <c r="L30" t="str">
-        <v>ขายแล้ว 16.2พัน ชิ้น</v>
-      </c>
-      <c r="M30" t="str">
-        <v>จังหวัดนครราชสีมา</v>
+        <v>-69%</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/%E2%9A%A1%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9A%A1%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%88%E0%B8%B4%E0%B9%8B%E0%B8%A7-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%94%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%A5%E0%B8%94-i.68784821.9674557670?sp_atk=a3b444e0-a7a9-446c-984f-2b90edd78a78&amp;xptdk=a3b444e0-a7a9-446c-984f-2b90edd78a78</v>
+        <v>https://shopee.co.th/%E2%9A%A1%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9A%A1%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%88%E0%B8%B4%E0%B9%8B%E0%B8%A7-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%94%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%A5%E0%B8%94-i.68784821.9674557670?sp_atk=eda16c4e-abe7-44b6-a3b8-367682e8ff39&amp;xptdk=eda16c4e-abe7-44b6-a3b8-367682e8ff39</v>
       </c>
       <c r="B31" t="str">
         <v>https://down-th.img.susercontent.com/file/77f4f2d51b0b056876fd3a711a883f14_tn</v>
       </c>
       <c r="C31" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D31" t="str">
+        <v>⚡พร้อมส่ง ครบสี⚡ลิปจิ๋ว ลิปเลิฟเวอร์ มีทุกสีของแท้ ของใหม่ล็อตล่าสุด กดติดตามมีโค้ดลด</v>
+      </c>
+      <c r="E31" t="str">
+        <v>-</v>
+      </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
+      <c r="G31" t="str">
+        <v>฿</v>
+      </c>
+      <c r="H31" t="str">
+        <v>45</v>
+      </c>
+      <c r="I31" t="str">
+        <v>ขายแล้ว 55.6พัน ชิ้น</v>
+      </c>
+      <c r="J31" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="K31" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="L31" t="str">
         <v>-66%</v>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v>⚡พร้อมส่ง ครบสี⚡ลิปจิ๋ว ลิปเลิฟเวอร์ มีทุกสีของแท้ ของใหม่ล็อตล่าสุด กดติดตามมีโค้ดลด</v>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v>-</v>
-      </c>
-      <c r="I31" t="str">
-        <v>20</v>
-      </c>
-      <c r="J31" t="str">
-        <v>฿</v>
-      </c>
-      <c r="K31" t="str">
-        <v>45</v>
-      </c>
-      <c r="L31" t="str">
-        <v>ขายแล้ว 55.6พัน ชิ้น</v>
-      </c>
-      <c r="M31" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/Abpopa-MengJieShangPin%C2%AE-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87-%E0%B8%94%E0%B8%B9%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-5-%E0%B8%84%E0%B8%B9%E0%B9%88-i.93231183.18737569655?sp_atk=a75e4920-825d-42a9-ad1c-142b954281ab&amp;xptdk=a75e4920-825d-42a9-ad1c-142b954281ab</v>
+        <v>https://shopee.co.th/%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99-%E0%B8%A5%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%95%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%9A%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99-%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B8%99%E0%B8%B9%E0%B8%99-Softcare-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-i.36374656.5438340070?sp_atk=20305acd-769a-4944-b227-ca754803211c&amp;xptdk=20305acd-769a-4944-b227-ca754803211c</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/7a567f3f6b5c44616d76936307ba173b_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>-78%</v>
+        <v>ศิริราช ซอฟท์แคร์ ครีมหมอศิริราช ลดรอยแผลเป็น ลดผิวแตกลาย ลบรอยแผลเป็น ท้องลาย แผลนูน Softcare ซอฟแคร์ศิริราช</v>
       </c>
       <c r="E32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>฿65</v>
       </c>
       <c r="F32" t="str">
-        <v>Abpopa MengJieShangPin® ขนตาปลอม แบบบาง ดูเป็นธรรมชาติ 5 คู่</v>
+        <v>60</v>
       </c>
       <c r="G32" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>฿159</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v>35</v>
+        <v>ขายแล้ว 55พัน ชิ้น</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L32" t="str">
-        <v>ขายแล้ว 29.7พัน ชิ้น</v>
-      </c>
-      <c r="M32" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-8%</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.594863448.17292209952?sp_atk=fa917b3e-8014-42b7-90de-f17967cd2115&amp;xptdk=fa917b3e-8014-42b7-90de-f17967cd2115</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-i.223833101.6671578509?sp_atk=1fa2ba19-ff27-432f-bbbe-7c19529c8e7a&amp;xptdk=1fa2ba19-ff27-432f-bbbe-7c19529c8e7a</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/06e629767fff200192e422bc2130928c_tn</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D33" t="str">
-        <v>-50%</v>
+        <v>สีผมโคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีผม ขายถูกสุด‼️</v>
       </c>
       <c r="E33" t="str">
         <v/>
       </c>
       <c r="F33" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v>9</v>
       </c>
       <c r="G33" t="str">
         <v/>
       </c>
       <c r="H33" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v>10</v>
+        <v>ขายแล้ว 51.6พัน ชิ้น</v>
       </c>
       <c r="J33" t="str">
-        <v>฿</v>
+        <v>จังหวัดราชบุรี</v>
       </c>
       <c r="K33" t="str">
-        <v>49</v>
+        <v/>
       </c>
       <c r="L33" t="str">
-        <v>ขายแล้ว 61.3พัน ชิ้น</v>
-      </c>
-      <c r="M33" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8Bubble-Bath-%F0%9F%9B%81-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-100-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%F0%9F%8F%B7%EF%B8%8F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B02%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AA%E0%B8%9A%E0%B8%95%E0%B8%B2%E2%AD%90%EF%B8%8F%E0%B9%80%E0%B8%A3%E0%B8%97-Wholesale%F0%9F%8C%9F-i.448358305.18460517123?sp_atk=b98d0854-2951-4641-9bd9-0cbb851bc3ed&amp;xptdk=b98d0854-2951-4641-9bd9-0cbb851bc3ed</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.594863448.17292209952?sp_atk=17e425dc-c7d0-4d4f-a300-c7fc3b2c989c&amp;xptdk=17e425dc-c7d0-4d4f-a300-c7fc3b2c989c</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-rumja6755fmvad_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="E34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-</v>
       </c>
       <c r="F34" t="str">
-        <v>✨Bubble Bath 🛁 ไซส์ใหญ่ 100 กรัม  🏷️ฟองเยอะ2เท่า  หอมผ่อนคลาย ไม่แสบตา⭐️เรท Wholesale🌟</v>
+        <v>10</v>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H34" t="str">
-        <v>-</v>
+        <v>49</v>
       </c>
       <c r="I34" t="str">
-        <v>15</v>
+        <v>ขายแล้ว 61.3พัน ชิ้น</v>
       </c>
       <c r="J34" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K34" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>ขายแล้ว 31พัน ชิ้น</v>
-      </c>
-      <c r="M34" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-50%</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%A5%E0%B8%B8%E0%B8%94%E0%B8%A3%E0%B9%88%E0%B8%A7%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-i.148820479.9129920332?sp_atk=4d0483cf-5f1b-40f0-a43e-95b565bf4ec4&amp;xptdk=4d0483cf-5f1b-40f0-a43e-95b565bf4ec4</v>
+        <v>https://shopee.co.th/2-In-1-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%B1%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-i.345976058.15324390061?sp_atk=ef030366-d25a-48c6-9a82-17c2555f754d&amp;xptdk=ef030366-d25a-48c6-9a82-17c2555f754d</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-en7yrxknw3nv37_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D35" t="str">
-        <v>-99%</v>
+        <v>2 In 1 ปากกาอายไลเนอร์ แสตมป์สองหัว กันน้ำ ติดทนนาน แห้งเร็ว สําหรับผู้เริ่มต้น</v>
       </c>
       <c r="E35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-</v>
       </c>
       <c r="F35" t="str">
-        <v>มาสคาร่า กันน้ำ ติดทนนาน ขนตายาว ไม่หลุดร่วงง่าย หัวแปรงยาว และบางเป็นธรรมชาติ นุ่ม</v>
+        <v>9</v>
       </c>
       <c r="G35" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H35" t="str">
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="I35" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 44.6พัน ชิ้น</v>
       </c>
       <c r="J35" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K35" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="L35" t="str">
-        <v>ขายแล้ว 581.6พัน ชิ้น</v>
-      </c>
-      <c r="M35" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-84%</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/-1%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-D.Dent-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%94%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C-%E0%B8%A2%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%9F%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A39%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94-%E0%B8%A1%E0%B8%B5%E0%B8%9F%E0%B8%A5%E0%B8%B9%E0%B8%AD%E0%B8%AD%E0%B9%84%E0%B8%A3%E0%B8%94%E0%B9%8C-1500ppm.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-g.-i.298976044.18365491193?sp_atk=f166f853-6011-4c59-a7cb-a9bbf2c2cc8a&amp;xptdk=f166f853-6011-4c59-a7cb-a9bbf2c2cc8a</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%F0%9F%98%8A-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-i.255138429.18648610935?sp_atk=5d6838da-d183-4f8b-8a22-ab93ce8ef24e&amp;xptdk=5d6838da-d183-4f8b-8a22-ab93ce8ef24e</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/5dc1d329f17be42a1bc90df2afbca0b6_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D36" t="str">
-        <v>-98%</v>
+        <v>ที่ล้างแปรงแต่งหน้า 😊 แผ่นซิลิโคน อ่างซิลิโคนล้างแปรง น้ำยาล้างแปรง</v>
       </c>
       <c r="E36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>-</v>
       </c>
       <c r="F36" t="str">
-        <v>[1หลอด] D.Dent ยาสีฟันดีเด้นท์ ยาสีฟันสมุนไพร9ชนิด มีฟลูออไรด์ 1500ppm. ขนาด 100 g.</v>
+        <v>25</v>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H36" t="str">
-        <v>฿59</v>
+        <v>108</v>
       </c>
       <c r="I36" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 22.8พัน ชิ้น</v>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L36" t="str">
-        <v>ขายแล้ว 42.9พัน ชิ้น</v>
-      </c>
-      <c r="M36" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>-68%</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87-DIY-8-%E0%B8%A1%E0%B8%A5.-i.523478166.16409828747?sp_atk=8bbb1955-edf1-4b30-9c84-6e089cc23bca&amp;xptdk=8bbb1955-edf1-4b30-9c84-6e089cc23bca</v>
+        <v>https://shopee.co.th/%E2%9C%A8Bubble-Bath-%F0%9F%9B%81-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-100-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%F0%9F%8F%B7%EF%B8%8F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B02%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AA%E0%B8%9A%E0%B8%95%E0%B8%B2%E2%AD%90%EF%B8%8F%E0%B9%80%E0%B8%A3%E0%B8%97-Wholesale%F0%9F%8C%9F-i.448358305.18460517123?sp_atk=cf59874d-07eb-47f5-b405-b395c40fd588&amp;xptdk=cf59874d-07eb-47f5-b405-b395c40fd588</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/ee675c5de17f09079ccc5327e5af31c5_tn</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D37" t="str">
-        <v>-78%</v>
+        <v>✨Bubble Bath 🛁 ไซส์ใหญ่ 100 กรัม  🏷️ฟองเยอะ2เท่า  หอมผ่อนคลาย ไม่แสบตา⭐️เรท Wholesale🌟</v>
       </c>
       <c r="E37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F37" t="str">
-        <v>กาวติดเล็บเจล ชิมเมอร์ กลิตเตอร์ สะท้อนแสง DIY 8 มล.</v>
+        <v>15</v>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H37" t="str">
-        <v>-</v>
+        <v>33</v>
       </c>
       <c r="I37" t="str">
-        <v>13</v>
+        <v>ขายแล้ว 31พัน ชิ้น</v>
       </c>
       <c r="J37" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K37" t="str">
-        <v>30</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L37" t="str">
-        <v>ขายแล้ว 54.6พัน ชิ้น</v>
-      </c>
-      <c r="M37" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%9F%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%8B%E0%B8%B5-35%E0%B8%97l.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%84%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C-i.52708754.13254092783?sp_atk=511aef86-1ab6-4f16-b87f-0d0555bf75b4&amp;xptdk=511aef86-1ab6-4f16-b87f-0d0555bf75b4</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E2%80%8B-i.896077.773882840?sp_atk=7761f303-48f2-49ac-8074-65cc98f345b8&amp;xptdk=7761f303-48f2-49ac-8074-65cc98f345b8</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/b401ff96fe19821db42f7182c4a03eba_tn</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="D38" t="str">
-        <v>-99%</v>
+        <v>ออยล์บำรุงเล็บแบบปากกา น้ำมันบำรุงเล็บ น้ำมันบำรุงขอบเล็บ​</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>฿29</v>
       </c>
       <c r="F38" t="str">
-        <v>น้ำหอมมิดไนท์แฟนตาซี 35ทl. กลิ่นเทียบเคียงแบรนด์</v>
+        <v>12</v>
       </c>
       <c r="G38" t="str">
         <v/>
       </c>
       <c r="H38" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 69.4พัน ชิ้น</v>
       </c>
       <c r="J38" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K38" t="str">
-        <v>36</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L38" t="str">
-        <v>ขายแล้ว 31.8พัน ชิ้น</v>
-      </c>
-      <c r="M38" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-59%</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%9E-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A724%E0%B8%8A%E0%B8%A1-Pinkyfocus-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.851310463.21349699123?sp_atk=590a27d9-452b-45c2-bc4d-82ace170ce75&amp;xptdk=590a27d9-452b-45c2-bc4d-82ace170ce75</v>
+        <v>https://shopee.co.th/liplover-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-%F0%9F%92%84%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%92%84-i.29272211.20514977653?sp_atk=f3fbf9ea-e2e6-4e65-831e-243249ffdd6d&amp;xptdk=f3fbf9ea-e2e6-4e65-831e-243249ffdd6d</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/b5a08018a9a468957a215d4ed4225e87_tn</v>
+        <v/>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>-65%</v>
+        <v>liplover ลิปเลิฟเวอร์  💄พร้อมส่ง💄</v>
       </c>
       <c r="E39" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F39" t="str">
-        <v>กรุงเทพ ส่งไว24ชม Pinkyfocus ลิปสติกโคลน เคลือบริมฝีปาก ติดทนนาน ไม่ซีดจาง สําหรับผู้หญิง</v>
+        <v>1</v>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H39" t="str">
-        <v>฿80</v>
+        <v>39</v>
       </c>
       <c r="I39" t="str">
-        <v>28</v>
+        <v>ขายแล้ว 31.6พัน ชิ้น</v>
       </c>
       <c r="J39" t="str">
-        <v/>
+        <v>จังหวัดนครศรีธรรมราช</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L39" t="str">
-        <v>ขายแล้ว 13.4พัน ชิ้น</v>
-      </c>
-      <c r="M39" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-98%</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B9%81%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C75-1-000ml.%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%81(%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%A1)-i.217059246.12124789072?sp_atk=419dcda3-4c77-41fa-a2a0-554b521f1b50&amp;xptdk=419dcda3-4c77-41fa-a2a0-554b521f1b50</v>
+        <v>https://shopee.co.th/**%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5**-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%8B%E0%B8%B5-ZOZU-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%A1%E0%B8%82%E0%B9%89%E0%B8%99-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%B2%E0%B8%A7%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B9%80%E0%B8%AB%E0%B9%87%E0%B8%99%E0%B8%9C%E0%B8%A5%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B8%AB%E0%B8%A5-i.177254002.3419441889?sp_atk=bcd4b834-2e06-4c60-9f5b-84deb26ba23d&amp;xptdk=bcd4b834-2e06-4c60-9f5b-84deb26ba23d</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/7de06b663eb1aa4012b89370e9f27faa_tn</v>
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D40" t="str">
-        <v>-15%</v>
+        <v>**สินค้าขายดี** มาส์กวิตามินซี ZOZU มาส์กวิตามินซีเข้มข้น หน้าขาวกระจ่างใส หน้าเนียนนุ่มชุ่มชื้น ลดริ้วรอย เห็นผลทันทีหล</v>
       </c>
       <c r="E40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v>สเปรย์แอลกอฮอล์75%1,000ml.หอมมากกก(กลิ่นแบรนด์เนม)</v>
+        <v>4</v>
       </c>
       <c r="G40" t="str">
         <v/>
       </c>
       <c r="H40" t="str">
-        <v>฿80</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>68</v>
+        <v>ขายแล้ว 267.3พัน ชิ้น</v>
       </c>
       <c r="J40" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K40" t="str">
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>ขายแล้ว 153.3พัน ชิ้น</v>
-      </c>
-      <c r="M40" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/KT-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%86-%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%88%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.272876306.7148794213?sp_atk=46a93c80-05ae-4eb1-b5b3-1825c3bf9127&amp;xptdk=46a93c80-05ae-4eb1-b5b3-1825c3bf9127</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B8%9F%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99-%E0%B8%82%E0%B8%B2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%AD%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B5%E0%B8%94-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-i.526502504.17200364024?sp_atk=75a54d53-df85-450a-858f-ceb22019bca4&amp;xptdk=75a54d53-df85-450a-858f-ceb22019bca4</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/29e95fb581c0fa738d1822e1a8bdb446_tn</v>
+        <v/>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>🔥เครื่องกําจัดขนไฟฟ้า ขนาดเล็ก สําหรับผู้หญิง ชิ้นส่วนส่วนตัว รักแร้ ใบหน้า ริมฝีปาก ขน ขา ที่ปอกผม มีด เครื่องกำจัดขน</v>
       </c>
       <c r="E41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>-</v>
       </c>
       <c r="F41" t="str">
-        <v>KT สติ๊กเกอร์ติดเล็บ ลายน่ารักมากๆ มาใหม่จ้า พร้อมส่ง</v>
+        <v>60</v>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>135</v>
       </c>
       <c r="I41" t="str">
-        <v>10</v>
+        <v>ขายแล้ว 51พัน ชิ้น</v>
       </c>
       <c r="J41" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L41" t="str">
-        <v>ขายแล้ว 32พัน ชิ้น</v>
-      </c>
-      <c r="M41" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-57%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/-%E0%B8%AD%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B1%E0%B8%9A1%E0%B8%9A%E0%B8%99shopee-%E0%B8%9C%E0%B8%87%E0%B8%AA%E0%B8%A1%E0%B8%B8%E0%B8%99%E0%B9%84%E0%B8%9E%E0%B8%A3-%E0%B8%9E%E0%B8%AD%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E2%80%8B-%E0%B8%AA%E0%B8%84%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%82%E0%B8%A1%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%97%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B2-%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B9%81%E0%B8%9F-%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B8%9E%E0%B8%AD%E0%B8%87-%E0%B9%84%E0%B8%9E%E0%B8%A5-%E0%B8%97%E0%B8%B3%E0%B8%AA%E0%B8%9A%E0%B8%B9%E0%B9%88-%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%94%E0%B8%B5-i.238143169.5741551363?sp_atk=2a865211-f9b8-41a1-9f70-febbd98c4713&amp;xptdk=2a865211-f9b8-41a1-9f70-febbd98c4713</v>
+        <v>https://shopee.co.th/KT-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%86-%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%88%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.272876306.7148794213?sp_atk=7cf145d8-25c2-4dba-a587-910e4e9f8c0c&amp;xptdk=7cf145d8-25c2-4dba-a587-910e4e9f8c0c</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-llvpf2g6l85q54_tn</v>
+        <v>https://down-th.img.susercontent.com/file/29e95fb581c0fa738d1822e1a8bdb446_tn</v>
       </c>
       <c r="C42" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="D42" t="str">
-        <v>-97%</v>
+        <v>KT สติ๊กเกอร์ติดเล็บ ลายน่ารักมากๆ มาใหม่จ้า พร้อมส่ง</v>
       </c>
       <c r="E42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v>[อันดับ1บนshopee] ผงสมุนไพร พอกหน้า ขัดผิว​ สครับผิวขาว ขมิ้น ทานาคา กากกาแฟ เกลือขัดผิว ดินสอพอง ไพล ทำสบู่ เกรดอย่างดี</v>
+        <v>10</v>
       </c>
       <c r="G42" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H42" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I42" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 32พัน ชิ้น</v>
       </c>
       <c r="J42" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K42" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="L42" t="str">
-        <v>ขายแล้ว 63.6พัน ชิ้น</v>
-      </c>
-      <c r="M42" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.127255001.9412365800?sp_atk=f07431be-dbea-4ecb-8ca6-b93bd8ca756a&amp;xptdk=f07431be-dbea-4ecb-8ca6-b93bd8ca756a</v>
+        <v>https://shopee.co.th/DKL901(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%81-Eye-shadow-9-colors-dikalu-i.25539018.9738907303?sp_atk=641d574f-fc45-4bab-87fc-65e7e5acc11b&amp;xptdk=641d574f-fc45-4bab-87fc-65e7e5acc11b</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/58471b81da524002420adbb088516c2e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0d1cf655be716c7509c00871f594663f_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>-83%</v>
+        <v>DKL901(ใหม่/แท้) พาเลทอายแชโดว์ 9 สี แมท เนื้อใยไหม ประกายชิมเมอร์ สีสวยมาก Eye shadow 9 colors dikalu</v>
       </c>
       <c r="E43" t="str">
         <v/>
       </c>
       <c r="F43" t="str">
-        <v>ลิปสติก ลิปกลอส เนื้อเจลลี่ กันน้ำ ติดทนนาน</v>
+        <v>23</v>
       </c>
       <c r="G43" t="str">
         <v/>
       </c>
       <c r="H43" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I43" t="str">
-        <v>11</v>
+        <v>ขายแล้ว 51.5พัน ชิ้น</v>
       </c>
       <c r="J43" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K43" t="str">
-        <v>12</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L43" t="str">
-        <v>ขายแล้ว 19.3พัน ชิ้น</v>
-      </c>
-      <c r="M43" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/NAGARAKU-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-16-%E0%B9%81%E0%B8%96%E0%B8%A7-i.80231784.2909708341?sp_atk=bc6dfea4-48d2-4a8e-9d37-8c659b5a9826&amp;xptdk=bc6dfea4-48d2-4a8e-9d37-8c659b5a9826</v>
+        <v>https://shopee.co.th/ANUA-Heartleaf-77-Soothing-Toner-%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B8%A7-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%82%E0%B8%A5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%AA%E0%B8%9A.-i.70998059.6946452197?sp_atk=95c36414-7b70-45af-80a9-2dfa5588f2f7&amp;xptdk=95c36414-7b70-45af-80a9-2dfa5588f2f7</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/8e4f2fac5bcc0a78a014d5b3bea62656_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn8-locuq3rs7lnk5e_tn</v>
       </c>
       <c r="C44" t="str">
         <v/>
       </c>
       <c r="D44" t="str">
-        <v>-12%</v>
+        <v>ANUA Heartleaf 77% Soothing Toner อานัว โทนเนอร์พี่จุน ปลอบประโลมผิวและลดการอักเสบ.</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>฿200</v>
       </c>
       <c r="F44" t="str">
-        <v>NAGARAKU ขนตาปลอม ขนมิงค์เทียม นิ่ม 16 แถว</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <v/>
       </c>
       <c r="H44" t="str">
-        <v>฿78</v>
+        <v/>
       </c>
       <c r="I44" t="str">
-        <v>69</v>
+        <v>ขายแล้ว 44.8พัน ชิ้น</v>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K44" t="str">
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>ขายแล้ว 92.8พัน ชิ้น</v>
-      </c>
-      <c r="M44" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-99%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A7-i.389569487.4679605013?sp_atk=15b40806-a598-4fee-aec1-b76c5669ebcb&amp;xptdk=15b40806-a598-4fee-aec1-b76c5669ebcb</v>
+        <v>https://shopee.co.th/%F0%9F%8E%80(%E0%B8%A1%E0%B8%B5-10-%E0%B8%A3%E0%B8%AA%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4)-Victory-Secret-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B9%8C%E0%B8%A2%E0%B8%A7%E0%B8%B4%E0%B8%84%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B8%B5%E0%B9%88-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-10-ml.-i.78549877.14011844572?sp_atk=24fd75e6-c109-4453-b05d-c5e4c60a58ec&amp;xptdk=24fd75e6-c109-4453-b05d-c5e4c60a58ec</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ljwjtwpuqisd35_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-ll544y5sid3295_tn</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="D45" t="str">
-        <v>-96%</v>
+        <v>🎀(มี 10 รสชาติ) Victory Secret สเปร์ยวิคตอรี่ สเปรย์ฉีดจุดซ่อนเร้น ขนาด 10 ml.</v>
       </c>
       <c r="E45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿199</v>
       </c>
       <c r="F45" t="str">
-        <v>เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กาว</v>
+        <v>1</v>
       </c>
       <c r="G45" t="str">
         <v/>
       </c>
       <c r="H45" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I45" t="str">
-        <v>2</v>
+        <v>ขายแล้ว 23.1พัน ชิ้น</v>
       </c>
       <c r="J45" t="str">
-        <v>฿</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K45" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="L45" t="str">
-        <v>ขายแล้ว 494.7พัน ชิ้น</v>
-      </c>
-      <c r="M45" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-99%</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-150-%E0%B8%A1%E0%B8%A5-200-%E0%B8%A1%E0%B8%A5-i.299697925.20544835873?sp_atk=0f6006c3-d3a3-4e12-bdce-8e332143bc8b&amp;xptdk=0f6006c3-d3a3-4e12-bdce-8e332143bc8b</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-60-%E0%B8%AA%E0%B8%B5-i.523478166.21340791019?sp_atk=ec94b534-691a-425f-964b-c16a9d0b1f55&amp;xptdk=ec94b534-691a-425f-964b-c16a9d0b1f55</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/e0259f3be6b8a454bed857dd2b967fdb_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-e1gli54uaplv54_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D46" t="str">
-        <v>-41%</v>
+        <v>น้ํายาทาเล็บเจล เคลือบเงาเล็บกึ่งถาวร 60 สี</v>
       </c>
       <c r="E46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F46" t="str">
-        <v>ดรายแชมพู สเปรย์สระผมแห้ง สเปรย์ฉีดผมแห้ง แชมพูแห้ง สเปรย์สระผมแบบแห้ง ผมแห้ง กำจัดผมมันโดยไม่ต้องสระผม 150 มล/200 มล</v>
+        <v>9</v>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H46" t="str">
-        <v>-</v>
+        <v>19</v>
       </c>
       <c r="I46" t="str">
-        <v>25</v>
+        <v>ขายแล้ว 59.6พัน ชิ้น</v>
       </c>
       <c r="J46" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K46" t="str">
-        <v>29</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L46" t="str">
-        <v>ขายแล้ว 44.1พัน ชิ้น</v>
-      </c>
-      <c r="M46" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-65%</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C-liplover-%E2%9D%97%E2%9D%97%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%95%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%AA%E0%B8%B5%E2%9D%97%E2%9D%97-i.29272211.8504953889?sp_atk=997cfbd3-2c7a-4f3c-bbe2-2c19c8e744e5&amp;xptdk=997cfbd3-2c7a-4f3c-bbe2-2c19c8e744e5</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-M1007-Music-Flower-Eyeliner-Gel-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-2-%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-24-%E0%B8%8A%E0%B8%A1-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.8930608.3424328419?sp_atk=6ef292ab-e598-4aa4-8a68-1c04bf2ef840&amp;xptdk=6ef292ab-e598-4aa4-8a68-1c04bf2ef840</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lljcon4d5dxa17_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ff281a87e031eac7a1bef0cbb5e2a631_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D47" t="str">
-        <v>-98%</v>
+        <v>เจลเขียนคิ้ว M1007 Music Flower Eyeliner Gel เขียนคิ้ว + อายไลเนอร์ 2 ตลับ กันน้ำ 24 ชม เจลคิ้ว ติดทนนาน เจลอายไลเนอร์</v>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>฿109</v>
       </c>
       <c r="F47" t="str">
-        <v>ลิปเลิฟเวอร์ liplover  ❗❗ล็อตล่าสุด พร้อมส่งครบสี❗❗</v>
+        <v>43</v>
       </c>
       <c r="G47" t="str">
         <v/>
       </c>
       <c r="H47" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I47" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 114.5พัน ชิ้น</v>
       </c>
       <c r="J47" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K47" t="str">
-        <v>38</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L47" t="str">
-        <v>ขายแล้ว 147.8พัน ชิ้น</v>
-      </c>
-      <c r="M47" t="str">
-        <v>จังหวัดนครศรีธรรมราช</v>
+        <v>-61%</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%81%E0%B8%B4%E0%B9%8A%E0%B8%9A%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%841-%E0%B9%81%E0%B8%A5%E0%B8%B0-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%89%E0%B8%B2-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%81%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%9E%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B8%B5%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%99-i.267190587.10487214152?sp_atk=2d15a020-e594-47ae-b65e-61d2ca0321aa&amp;xptdk=2d15a020-e594-47ae-b65e-61d2ca0321aa</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Peptide-Acne-Gel-B3-Acne-Concentrate-Serum-i.15147300.14207904594?sp_atk=2ca21c9e-fbff-4c4a-8728-860ebd0c605b&amp;xptdk=2ca21c9e-fbff-4c4a-8728-860ebd0c605b</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/eabd2e6f2089470538a9e7f7fa130422_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-lh6fzgewh2wk88_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>-50%</v>
+        <v>ถูก/แท้/ส่งฟรี (หลอด) เจลแต้มสิว MizuMi เซรั่มลดรอยสิว MizuMi มิซึมิ Peptide Acne Gel B3 Acne Concentrate Serum</v>
       </c>
       <c r="E48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿229</v>
       </c>
       <c r="F48" t="str">
-        <v>กิ๊บยกโคนผม กิ๊บม้วนผม แพ็ค1 และ 2 ชิ้น โรลยกโคนผม ม้วนผมหน้าม้า โรลเพิ่มวอลลุ่ม ช่วยยกโคนให้ผมดูหนา พองสวย ผมไม่ลีบแบน</v>
+        <v>69</v>
       </c>
       <c r="G48" t="str">
         <v/>
       </c>
       <c r="H48" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I48" t="str">
-        <v>7</v>
+        <v>ขายแล้ว 67.5พัน ชิ้น</v>
       </c>
       <c r="J48" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K48" t="str">
-        <v>18</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L48" t="str">
-        <v>ขายแล้ว 43.1พัน ชิ้น</v>
-      </c>
-      <c r="M48" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-70%</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%83%E0%B8%AA-5D-%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B9%81%E0%B8%8A%E0%B9%88%E0%B8%9B%E0%B8%B4%E0%B8%94-UV-LED-%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%87-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%AA%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%9F-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-i.523478166.13395364261?sp_atk=89f3e27e-8d74-4fc9-b218-62c3b1c28bcc&amp;xptdk=89f3e27e-8d74-4fc9-b218-62c3b1c28bcc</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-150-%E0%B8%A1%E0%B8%A5-200-%E0%B8%A1%E0%B8%A5-i.299697925.20544835873?sp_atk=0ef9c5e1-b30b-4a68-910c-6e40d1e58eea&amp;xptdk=0ef9c5e1-b30b-4a68-910c-6e40d1e58eea</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/a030c28e3d33189406817a6fd55123eb_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e0259f3be6b8a454bed857dd2b967fdb_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D49" t="str">
-        <v>-48%</v>
+        <v>ดรายแชมพู สเปรย์สระผมแห้ง สเปรย์ฉีดผมแห้ง แชมพูแห้ง สเปรย์สระผมแบบแห้ง ผมแห้ง กำจัดผมมันโดยไม่ต้องสระผม 150 มล/200 มล</v>
       </c>
       <c r="E49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F49" t="str">
-        <v>สีเจลใส 5D สีแคนดี้ แช่ปิด UV LED เจล สีมาการอง เจลลี่ ส่องไฟ กาวติดเล็บ ตกแต่งเล็บเจล</v>
+        <v>25</v>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H49" t="str">
-        <v>฿56</v>
+        <v>29</v>
       </c>
       <c r="I49" t="str">
-        <v>29</v>
+        <v>ขายแล้ว 44.1พัน ชิ้น</v>
       </c>
       <c r="J49" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L49" t="str">
-        <v>ขายแล้ว 25.2พัน ชิ้น</v>
-      </c>
-      <c r="M49" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-41%</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%82%E0%B8%84%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!!-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E2%80%BC%EF%B8%8F-i.223833101.6671578509?sp_atk=0d83d01b-a3be-4bf7-beca-37dd3dd915ac&amp;xptdk=0d83d01b-a3be-4bf7-beca-37dd3dd915ac</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87-DIY-8-%E0%B8%A1%E0%B8%A5.-i.523478166.16409828747?sp_atk=ad77d2e3-9a11-46cb-868d-6f9c8e5d9708&amp;xptdk=ad77d2e3-9a11-46cb-868d-6f9c8e5d9708</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/06e629767fff200192e422bc2130928c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ee675c5de17f09079ccc5327e5af31c5_tn</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>กาวติดเล็บเจล ชิมเมอร์ กลิตเตอร์ สะท้อนแสง DIY 8 มล.</v>
       </c>
       <c r="E50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>-</v>
       </c>
       <c r="F50" t="str">
-        <v>สีผมโคตรสวย พร้อมส่ง!! ทรีทเม้นท์เปลี่ยนสีผม สีผม ขายถูกสุด‼️</v>
+        <v>13</v>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H50" t="str">
-        <v/>
+        <v>30</v>
       </c>
       <c r="I50" t="str">
-        <v>9</v>
+        <v>ขายแล้ว 54.6พัน ชิ้น</v>
       </c>
       <c r="J50" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L50" t="str">
-        <v>ขายแล้ว 51.6พัน ชิ้น</v>
-      </c>
-      <c r="M50" t="str">
-        <v>จังหวัดราชบุรี</v>
+        <v>-78%</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/Beikott-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eyeshadow-7%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%95%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-i.606860656.18361242759?sp_atk=ce714ed2-ffa4-4228-ae75-f27de9c5aabc&amp;xptdk=ce714ed2-ffa4-4228-ae75-f27de9c5aabc</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.127255001.9412365800?sp_atk=f1674964-e7ce-4049-ae68-5befffe6088e&amp;xptdk=f1674964-e7ce-4049-ae68-5befffe6088e</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-lkc6rh79cpyz93_tn</v>
+        <v>https://down-th.img.susercontent.com/file/58471b81da524002420adbb088516c2e_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D51" t="str">
-        <v>-68%</v>
+        <v>ลิปสติก ลิปกลอส เนื้อเจลลี่ กันน้ำ ติดทนนาน</v>
       </c>
       <c r="E51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>-</v>
       </c>
       <c r="F51" t="str">
-        <v>Beikott อายแชโดว์ อายแชโดว์พาเลท พาเลตอายแชโดว์กันน้ำ เนื้อใยไหม ประกายชิมเมอร์ Eyeshadow 7สี เตรียมจัดส่งสินค้า</v>
+        <v>11</v>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H51" t="str">
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="I51" t="str">
-        <v>22</v>
+        <v>ขายแล้ว 19.3พัน ชิ้น</v>
       </c>
       <c r="J51" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K51" t="str">
-        <v>24</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L51" t="str">
-        <v>ขายแล้ว 31พัน ชิ้น</v>
-      </c>
-      <c r="M51" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>-83%</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/ANUA-Heartleaf-77-Soothing-Toner-%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B8%A7-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%82%E0%B8%A5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%AA%E0%B8%9A.-i.70998059.6946452197?sp_atk=d1b9173d-5575-49f0-936d-565079ee84ba&amp;xptdk=d1b9173d-5575-49f0-936d-565079ee84ba</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B8%AA%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-18%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3-Innisfree-My-Real-Squeeze-Mask-20ml-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA-i.219286622.9257869455?sp_atk=236a75aa-75c5-49ad-9698-7d5c1a15072f&amp;xptdk=236a75aa-75c5-49ad-9698-7d5c1a15072f</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn8-locuq3rs7lnk5e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ee48e73a3a4b98ba9dff014fc15c3dcc_tn</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>-99%</v>
+        <v>อินนิสฟรี มาส์กหน้า 18สูตร Innisfree My Real Squeeze Mask 20ml แผ่นมาส์กหน้า มาร์คหน้า มาร์กหน้า แผ่นมาร์ส</v>
       </c>
       <c r="E52" t="str">
         <v/>
       </c>
       <c r="F52" t="str">
-        <v>ANUA Heartleaf 77% Soothing Toner อานัว โทนเนอร์พี่จุน ปลอบประโลมผิวและลดการอักเสบ.</v>
+        <v>18</v>
       </c>
       <c r="G52" t="str">
         <v/>
       </c>
       <c r="H52" t="str">
-        <v>฿200</v>
+        <v/>
       </c>
       <c r="I52" t="str">
-        <v>1</v>
+        <v>ขายแล้ว 409.8พัน ชิ้น</v>
       </c>
       <c r="J52" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L52" t="str">
-        <v>ขายแล้ว 44.8พัน ชิ้น</v>
-      </c>
-      <c r="M52" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%A5SALE%F0%9F%92%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%A5%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-i.177254002.4204976287?sp_atk=33c098f3-7c07-451c-beea-641075eebf2a&amp;xptdk=33c098f3-7c07-451c-beea-641075eebf2a</v>
+        <v>https://shopee.co.th/Abpopa-MengJieShangPin%C2%AE-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87-%E0%B8%94%E0%B8%B9%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-5-%E0%B8%84%E0%B8%B9%E0%B9%88-i.93231183.18737569655?sp_atk=b9e3990b-4a60-4ce9-ae53-525803f46a7d&amp;xptdk=b9e3990b-4a60-4ce9-ae53-525803f46a7d</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/5fac3b3182eaa8b6e436adbeb5990c8e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/vn-11134201-23030-0bel62r4jcova6_tn</v>
       </c>
       <c r="C53" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D53" t="str">
-        <v>-75%</v>
+        <v>Abpopa MengJieShangPin® ขนตาปลอม แบบบาง ดูเป็นธรรมชาติ 5 คู่</v>
       </c>
       <c r="E53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>฿159</v>
       </c>
       <c r="F53" t="str">
-        <v>💥SALE💥ครีมทามือสูตรยอดนิยม 30 กรัม เพิ่มความชุ่มชื้น ผิวมือเนียนนุ่มชุ่มชื้น กลิ่นหอม ราคาลดพิเศษ</v>
+        <v>35</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -2532,347 +2376,320 @@
         <v/>
       </c>
       <c r="I53" t="str">
-        <v>5</v>
+        <v>ขายแล้ว 29.7พัน ชิ้น</v>
       </c>
       <c r="J53" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L53" t="str">
-        <v>ขายแล้ว 304.1พัน ชิ้น</v>
-      </c>
-      <c r="M53" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-78%</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-8-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-ml-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-Perfume-Body-Lotion-i.4102104.14558845296?sp_atk=083f4758-53a9-4e95-9c7c-6ae09ebcca6a&amp;xptdk=083f4758-53a9-4e95-9c7c-6ae09ebcca6a</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%97%E0%B8%B9%E0%B9%82%E0%B8%97%E0%B8%99-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.517276955.16882091979?sp_atk=85cbee60-bdaa-4162-96d6-95b73a37d5d4&amp;xptdk=85cbee60-bdaa-4162-96d6-95b73a37d5d4</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/cb7e73faa59ee1dacbcf5f412af89fc1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/45ab1c8f93680010db10ea92442d7c57_tn</v>
       </c>
       <c r="C54" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="D54" t="str">
-        <v>-9%</v>
+        <v>สีทาเล็บ น้ำยาทาเล็บ ทาเล็บ สีทาเล็บแบบทูโทน ทาเล็บลอกได้ ยาทาเล็บ</v>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>฿49</v>
       </c>
       <c r="F54" t="str">
-        <v>พร้อมส่ง น้ำหอม โลชั่นน้ำหอมมายช้อยส์ 8 กลิ่น ขนาด 100 ml กลิ่นหอมติดทนนาน Perfume Body Lotion</v>
+        <v>11</v>
       </c>
       <c r="G54" t="str">
         <v/>
       </c>
       <c r="H54" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I54" t="str">
-        <v>20</v>
+        <v>ขายแล้ว 13พัน ชิ้น</v>
       </c>
       <c r="J54" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K54" t="str">
-        <v>22</v>
+        <v/>
       </c>
       <c r="L54" t="str">
-        <v>ขายแล้ว 47.7พัน ชิ้น</v>
-      </c>
-      <c r="M54" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-78%</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/2-In-1-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%B1%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-i.345976058.15324390061?sp_atk=1bce6b42-db13-49aa-b1fc-20b1a4980061&amp;xptdk=1bce6b42-db13-49aa-b1fc-20b1a4980061</v>
+        <v>https://shopee.co.th/Pudding-Bear-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%88%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%87%E0%B8%B2%E0%B8%A1-i.345976058.20169274281?sp_atk=59ad45f1-ee21-4703-9a09-df72ae705f52&amp;xptdk=59ad45f1-ee21-4703-9a09-df72ae705f52</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-en7yrxknw3nv37_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-oo5jy6b78alv57_tn</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="D55" t="str">
-        <v>-84%</v>
+        <v>Pudding Bear ลิปสติก ลิปกลอส เคลือบริมฝีปาก ติดทนนาน กันน้ํา ไม่จางหาย สําหรับนักเรียน แต่งหน้า ความงาม</v>
       </c>
       <c r="E55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>฿59</v>
       </c>
       <c r="F55" t="str">
-        <v>2 In 1 ปากกาอายไลเนอร์ แสตมป์สองหัว กันน้ำ ติดทนนาน แห้งเร็ว สําหรับผู้เริ่มต้น</v>
+        <v>19</v>
       </c>
       <c r="G55" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="H55" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I55" t="str">
-        <v>9</v>
+        <v>ขายแล้ว 17.4พัน ชิ้น</v>
       </c>
       <c r="J55" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K55" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="L55" t="str">
-        <v>ขายแล้ว 44.6พัน ชิ้น</v>
-      </c>
-      <c r="M55" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-68%</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/LANBENA-Eye-Mask-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3-60-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.86465195.4146028480?sp_atk=94c06329-9d00-4a3d-9c9c-5fc46830896b&amp;xptdk=94c06329-9d00-4a3d-9c9c-5fc46830896b</v>
+        <v>https://shopee.co.th/Banana-Boat-Aqua-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%82%E0%B8%9A%E0%B9%89%E0%B8%97.-i.70998059.9245467680?sp_atk=a2bb44c8-ffd2-4f4f-92b8-1ed3d61670c0&amp;xptdk=a2bb44c8-ffd2-4f4f-92b8-1ed3d61670c0</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/913932a458059b9c9276b009020dd9da_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
       </c>
       <c r="C56" t="str">
         <v/>
       </c>
       <c r="D56" t="str">
-        <v>-78%</v>
+        <v>Banana Boat Aqua กันแดดบานาน่า โบ้ท.</v>
       </c>
       <c r="E56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>฿435</v>
       </c>
       <c r="F56" t="str">
-        <v>LANBENA Eye Mask อายมาร์ค มาร์คใต้ตา มาร์คใต้ตา อายมาสก์ บำรุงรอบดวงตา ช่วยลดริ้วรอย และความหมองคล้ำ 60 ชิ้น</v>
+        <v>42</v>
       </c>
       <c r="G56" t="str">
         <v/>
       </c>
       <c r="H56" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I56" t="str">
-        <v>99</v>
+        <v>ขายแล้ว 74.8พัน ชิ้น</v>
       </c>
       <c r="J56" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K56" t="str">
-        <v>289</v>
+        <v/>
       </c>
       <c r="L56" t="str">
-        <v>ขายแล้ว 24.3พัน ชิ้น</v>
-      </c>
-      <c r="M56" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-90%</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-Kale-Plus-shinning-cateye-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%A1%E0%B8%A7%E0%B8%95%E0%B8%B2-8ml-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.426969735.16240275063?sp_atk=85a1ba40-a4a2-4f02-be4f-685f9e96fae3&amp;xptdk=85a1ba40-a4a2-4f02-be4f-685f9e96fae3</v>
+        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8F-DAYSE-x-COSLUXE-Lash-Adhesive-White-Waterproof-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A5%E0%B8%B8%E0%B8%84-%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.11210871.886718034?sp_atk=eae53507-f2f1-44f9-aa43-948de12407e6&amp;xptdk=eae53507-f2f1-44f9-aa43-948de12407e6</v>
       </c>
       <c r="B57" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnb-lq1gna9kinmu60_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D57" t="str">
-        <v>-74%</v>
+        <v>♦️ของแท้·ส่งด่วน·ถูก♦️ DAYSE x COSLUXE: Lash Adhesive White Waterproof : คอสลุค กาว กาวติดขนตาปลอม กาวติดขนตา</v>
       </c>
       <c r="E57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>-</v>
       </c>
       <c r="F57" t="str">
-        <v>สีทาเล็บลูกแก้ว Kale Plus shinning cateye สีทาเล็บเจล สีลูกแก้ว แมวตา 8ml พร้อมส่ง</v>
+        <v>35</v>
       </c>
       <c r="G57" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H57" t="str">
-        <v>฿148</v>
+        <v>118</v>
       </c>
       <c r="I57" t="str">
-        <v>39</v>
+        <v>ขายแล้ว 57พัน ชิ้น</v>
       </c>
       <c r="J57" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L57" t="str">
-        <v>ขายแล้ว 19.8พัน ชิ้น</v>
-      </c>
-      <c r="M57" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-19%</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1-3-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-KOTA-COSMETICS-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.59913582.23214646367?sp_atk=311bbd25-21c6-4f55-9918-7d0eee9795a3&amp;xptdk=311bbd25-21c6-4f55-9918-7d0eee9795a3</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-Kale-Plus-shinning-cateye-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%A1%E0%B8%A7%E0%B8%95%E0%B8%B2-8ml-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.426969735.16240275063?sp_atk=b488c51a-f6fc-4b9b-90f0-9db3c86875d4&amp;xptdk=b488c51a-f6fc-4b9b-90f0-9db3c86875d4</v>
       </c>
       <c r="B58" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/c8a50d61daeb106aa5747676b6e056b5_tn</v>
       </c>
       <c r="C58" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="D58" t="str">
-        <v>-5%</v>
+        <v>สีทาเล็บลูกแก้ว Kale Plus shinning cateye สีทาเล็บเจล สีลูกแก้ว แมวตา 8ml พร้อมส่ง</v>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>฿148</v>
       </c>
       <c r="F58" t="str">
-        <v>ยาย้อม 3 สีใหม่ สีผม KOTA COSMETICS สีย้อมผมออร์แกนิคแท้ 💯%นวัตกรรมใหม่ผลิตจากรากโสมธรรมชาติ</v>
+        <v>39</v>
       </c>
       <c r="G58" t="str">
         <v/>
       </c>
       <c r="H58" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I58" t="str">
-        <v>37</v>
+        <v>ขายแล้ว 19.8พัน ชิ้น</v>
       </c>
       <c r="J58" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K58" t="str">
-        <v>176</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L58" t="str">
-        <v>ขายแล้ว 13.7พัน ชิ้น</v>
-      </c>
-      <c r="M58" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-74%</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/Monochrome-Net-Red-Rouge-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.3049984196?sp_atk=c0c325a5-10d9-43c0-b903-ff1a144ef980&amp;xptdk=c0c325a5-10d9-43c0-b903-ff1a144ef980</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.273622042.12196701574?sp_atk=70038ab3-1dd5-4918-bdc7-a90abf051bb0&amp;xptdk=70038ab3-1dd5-4918-bdc7-a90abf051bb0</v>
       </c>
       <c r="B59" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/028f0258c555333e20127cd4a9395ce6_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="D59" t="str">
-        <v>-91%</v>
+        <v>ลิปกลอส เนื้อแมตต์ กันน้ํา ติดทนนาน</v>
       </c>
       <c r="E59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>-</v>
       </c>
       <c r="F59" t="str">
-        <v>Monochrome Net Red Rouge Blush บลัชออน เนื้อแมตต์ สำหรับแต่งหน้า</v>
+        <v>1</v>
       </c>
       <c r="G59" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>฿</v>
       </c>
       <c r="H59" t="str">
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="I59" t="str">
-        <v>9</v>
+        <v>ขายแล้ว 195.3พัน ชิ้น</v>
       </c>
       <c r="J59" t="str">
-        <v>฿</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K59" t="str">
-        <v>15</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="L59" t="str">
-        <v>ขายแล้ว 80.2พัน ชิ้น</v>
-      </c>
-      <c r="M59" t="str">
-        <v>ต่างประเทศ</v>
+        <v>-97%</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)-%E0%B8%88%E0%B8%B8%E0%B8%AC%E0%B8%B2%E0%B9%80%E0%B8%AE%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%9A-Jula's-Herb-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87-Jula-julahreb-DDcream-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%B3%E0%B9%84%E0%B8%A2-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-C1-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-i.32233698.10829642164?sp_atk=3f7563f5-88d1-4fab-b0d8-0765e674cf54&amp;xptdk=3f7563f5-88d1-4fab-b0d8-0765e674cf54</v>
+        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)-%E0%B8%88%E0%B8%B8%E0%B8%AC%E0%B8%B2%E0%B9%80%E0%B8%AE%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%9A-Jula's-Herb-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87-Jula-julahreb-DDcream-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%B3%E0%B9%84%E0%B8%A2-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-C1-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-i.32233698.10829642164?sp_atk=3481844b-8690-4d44-a00d-f7024589ccc2&amp;xptdk=3481844b-8690-4d44-a00d-f7024589ccc2</v>
       </c>
       <c r="B60" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnpaiayqkpyf28_tn</v>
       </c>
       <c r="C60" t="str">
         <v/>
       </c>
       <c r="D60" t="str">
-        <v/>
+        <v>(หลอด/ยกกล่อง) จุฬาเฮิร์บ Jula's Herb ครีมซอง Jula julahreb DDcream เซรั่มลำไย ดีดีครีม C1 เซรั่มแตงโม ดีดีแตงโม</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="F60" t="str">
-        <v>(หลอด/ยกกล่อง) จุฬาเฮิร์บ Jula's Herb ครีมซอง Jula julahreb DDcream เซรั่มลำไย ดีดีครีม C1 เซรั่มแตงโม ดีดีแตงโม</v>
+        <v>158</v>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="H60" t="str">
-        <v>-</v>
+        <v>249</v>
       </c>
       <c r="I60" t="str">
-        <v>158</v>
+        <v>ขายแล้ว 58พัน ชิ้น</v>
       </c>
       <c r="J60" t="str">
-        <v>฿</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K60" t="str">
-        <v>249</v>
+        <v/>
       </c>
       <c r="L60" t="str">
-        <v>ขายแล้ว 58พัน ชิ้น</v>
-      </c>
-      <c r="M60" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-42-Colors-Nail-gel-polish-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-UV-LED%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-(%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A)-i.795198852.18345143038?sp_atk=0666f98e-6269-430b-94f7-60278a38d2c8&amp;xptdk=0666f98e-6269-430b-94f7-60278a38d2c8</v>
+        <v>https://shopee.co.th/%F0%9F%90%8F(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-CARISTA-GOAT-MILK-KERATIN-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%B0-500-g.-i.78549877.12557325813?sp_atk=ff0f0f84-0a9d-4bb2-8719-323b8411216a&amp;xptdk=ff0f0f84-0a9d-4bb2-8719-323b8411216a</v>
       </c>
       <c r="B61" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/dbbb6d1d4a972ca7fdbc263721159442_tn</v>
       </c>
       <c r="C61" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="D61" t="str">
-        <v>-45%</v>
+        <v>🐏(แพคเกจใหม่) CARISTA GOAT MILK KERATIN คาริสต้า เคราตินนมแพะ 500 g.</v>
       </c>
       <c r="E61" t="str">
-        <v/>
+        <v>฿39</v>
       </c>
       <c r="F61" t="str">
-        <v>สีเจล เจลทาเล็บ สีเจลทาเล็บ 42 Colors Nail gel polish สีสวย UV/LEDสีเจล สีทาเล็บเจล แแบบต้องอบ (ต้องใช้เครื่องอบ)</v>
+        <v>1</v>
       </c>
       <c r="G61" t="str">
         <v/>
       </c>
       <c r="H61" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I61" t="str">
-        <v>12</v>
+        <v>ขายแล้ว 157.7พัน ชิ้น</v>
       </c>
       <c r="J61" t="str">
-        <v>฿</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K61" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="L61" t="str">
-        <v>ขายแล้ว 84พัน ชิ้น</v>
-      </c>
-      <c r="M61" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>-99%</v>
       </c>
     </row>
   </sheetData>
